--- a/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/mokry_obesity_2016.xlsx
+++ b/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/mokry_obesity_2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f99f7067dc2a9a5/Documents/R/Working Directory/Data_Science_MSc/Dissertation_Bayes_MR/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22C4E43D-6371-4515-9FCB-E71DF9F4DBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{22C4E43D-6371-4515-9FCB-E71DF9F4DBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4F584BA-4AD1-4B06-BBDC-BB0F4958DBBE}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19180" windowHeight="11170" xr2:uid="{8A3BB852-7168-48D5-AFAC-CE153936FD9B}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{8A3BB852-7168-48D5-AFAC-CE153936FD9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Table004 (Page 7-8)" sheetId="2" r:id="rId1"/>
@@ -1523,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ADCFF7-C1EB-4801-B550-02DC019036B8}">
   <dimension ref="A1:AB72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3:AB72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1728,20 +1728,20 @@
         <v>1.7106513699587575E-3</v>
       </c>
       <c r="Y3">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="AA3">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB3">
         <f>(Y3-Z3)/1.96</f>
-        <v>4.0988453624945166E-2</v>
+        <v>1.5540411981994171E-2</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
@@ -1812,20 +1812,20 @@
         <v>3.649024665057384E-3</v>
       </c>
       <c r="Y4">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6116964734231178</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-4.0821994520255166E-2</v>
       </c>
       <c r="AA4">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB4">
         <f t="shared" ref="AB4:AB67" si="3">(Y4-Z4)/1.96</f>
-        <v>5.4380283181595539E-2</v>
+        <v>2.0827548224619984E-2</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
@@ -1896,20 +1896,20 @@
         <v>4.0064745893953089E-3</v>
       </c>
       <c r="Y5">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="Z5">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="AA5">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>3.0041660239464334</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>9.5310179804324935E-2</v>
       </c>
       <c r="AB5">
         <f t="shared" si="3"/>
-        <v>5.7168419921554858E-2</v>
+        <v>1.9816241487889776E-2</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
@@ -1980,20 +1980,20 @@
         <v>3.0940714867255959E-3</v>
       </c>
       <c r="Y6">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="Z6">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="AA6">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB6">
         <f t="shared" si="3"/>
-        <v>4.1816475313793726E-2</v>
+        <v>1.5231103647796521E-2</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
@@ -2064,20 +2064,20 @@
         <v>3.8703756544317736E-3</v>
       </c>
       <c r="Y7">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6116964734231178</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-4.0821994520255166E-2</v>
       </c>
       <c r="AA7">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB7">
         <f t="shared" si="3"/>
-        <v>5.4380283181595539E-2</v>
+        <v>2.0827548224619984E-2</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
@@ -2148,20 +2148,20 @@
         <v>4.017638968914862E-3</v>
       </c>
       <c r="Y8">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="Z8">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="AA8">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9446795510655241</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>7.6961041136128394E-2</v>
       </c>
       <c r="AB8">
         <f t="shared" si="3"/>
-        <v>7.0399256123621301E-2</v>
+        <v>2.5138290309583051E-2</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
@@ -2232,20 +2232,20 @@
         <v>3.7386530646937952E-3</v>
       </c>
       <c r="Y9">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.8010658346990791</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>2.9558802241544429E-2</v>
       </c>
       <c r="Z9">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="AA9">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9446795510655241</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>7.6961041136128394E-2</v>
       </c>
       <c r="AB9">
         <f t="shared" si="3"/>
-        <v>5.6036409362151561E-2</v>
+        <v>2.0208743926043816E-2</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
@@ -2316,20 +2316,20 @@
         <v>3.1102284521522887E-3</v>
       </c>
       <c r="Y10">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="Z10">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6116964734231178</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-4.0821994520255166E-2</v>
       </c>
       <c r="AA10">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8010658346990791</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB10">
         <f t="shared" si="3"/>
-        <v>4.0580611697012353E-2</v>
+        <v>1.5699825850384548E-2</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
@@ -2400,20 +2400,20 @@
         <v>3.1802854664185814E-3</v>
       </c>
       <c r="Y11">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="Z11">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6644562419294169</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="AA11">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8863709892679585</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB11">
         <f t="shared" si="3"/>
-        <v>5.5478837772898408E-2</v>
+        <v>2.0410885006989385E-2</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
@@ -2484,20 +2484,20 @@
         <v>3.0830327170072495E-3</v>
       </c>
       <c r="Y12">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.8863709892679585</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>5.8268908123975824E-2</v>
       </c>
       <c r="Z12">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="AA12">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9742740725630656</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>8.6177696241052412E-2</v>
       </c>
       <c r="AB12">
         <f t="shared" si="3"/>
-        <v>5.7742972093704485E-2</v>
+        <v>1.9625653483569438E-2</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
@@ -2568,20 +2568,20 @@
         <v>3.1217885107430307E-3</v>
       </c>
       <c r="Y13">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="Z13">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="AA13">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB13">
         <f t="shared" si="3"/>
-        <v>5.4926814113654986E-2</v>
+        <v>2.0617111396875849E-2</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.35">
@@ -2652,20 +2652,20 @@
         <v>4.6164610650375592E-3</v>
       </c>
       <c r="Y14">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="Z14">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="AA14">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9446795510655241</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>7.6961041136128394E-2</v>
       </c>
       <c r="AB14">
         <f t="shared" si="3"/>
-        <v>6.9005257454155713E-2</v>
+        <v>2.5643793255555259E-2</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
@@ -2736,20 +2736,20 @@
         <v>4.5505201226154141E-3</v>
       </c>
       <c r="Y15">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.8863709892679585</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>5.8268908123975824E-2</v>
       </c>
       <c r="Z15">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>3.0648542032930024</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>0.11332868530700327</v>
       </c>
       <c r="AB15">
         <f t="shared" si="3"/>
-        <v>8.5759775922915032E-2</v>
+        <v>2.9729034757130523E-2</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
@@ -2820,20 +2820,20 @@
         <v>4.1554174164966174E-3</v>
       </c>
       <c r="Y16">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="Z16">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9742740725630656</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>8.6177696241052412E-2</v>
       </c>
       <c r="AB16">
         <f t="shared" si="3"/>
-        <v>7.1106780410264678E-2</v>
+        <v>2.4892940902771454E-2</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.35">
@@ -2904,20 +2904,20 @@
         <v>3.6469588572924081E-3</v>
       </c>
       <c r="Y17">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="Z17">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.585709659315846</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-5.1293294387550578E-2</v>
       </c>
       <c r="AA17">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8010658346990791</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB17">
         <f t="shared" si="3"/>
-        <v>5.3839190323171478E-2</v>
+        <v>2.1042325782678128E-2</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.35">
@@ -2988,20 +2988,20 @@
         <v>3.1016834013285568E-3</v>
       </c>
       <c r="Y18">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="Z18">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.5599814183292713</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-6.1875403718087529E-2</v>
       </c>
       <c r="AA18">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="AB18">
         <f t="shared" si="3"/>
-        <v>3.9777061747388404E-2</v>
+        <v>1.6028671547642325E-2</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.35">
@@ -3072,20 +3072,20 @@
         <v>3.1093712759504904E-3</v>
       </c>
       <c r="Y19">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="Z19">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6644562419294169</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="AA19">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB19">
         <f t="shared" si="3"/>
-        <v>5.5478837772898408E-2</v>
+        <v>2.0410885006989385E-2</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.35">
@@ -3156,20 +3156,20 @@
         <v>3.0459209921138621E-3</v>
       </c>
       <c r="Y20">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="Z20">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6116964734231178</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-4.0821994520255166E-2</v>
       </c>
       <c r="AA20">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8010658346990791</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB20">
         <f t="shared" si="3"/>
-        <v>4.0580611697012353E-2</v>
+        <v>1.5699825850384548E-2</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.35">
@@ -3240,20 +3240,20 @@
         <v>3.5748833303499571E-3</v>
       </c>
       <c r="Y21">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="Z21">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.5599814183292713</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-6.1875403718087529E-2</v>
       </c>
       <c r="AA21">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="AB21">
         <f t="shared" si="3"/>
-        <v>3.9777061747388404E-2</v>
+        <v>1.6028671547642325E-2</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.35">
@@ -3324,20 +3324,20 @@
         <v>3.1102577503204702E-3</v>
       </c>
       <c r="Y22">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="Z22">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="AA22">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8863709892679585</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB22">
         <f t="shared" si="3"/>
-        <v>4.1816475313793726E-2</v>
+        <v>1.5231103647796521E-2</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.35">
@@ -3408,20 +3408,20 @@
         <v>3.9103977687082164E-3</v>
       </c>
       <c r="Y23">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="Z23">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.585709659315846</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-5.1293294387550578E-2</v>
       </c>
       <c r="AA23">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB23">
         <f t="shared" si="3"/>
-        <v>5.3839190323171478E-2</v>
+        <v>2.1042325782678128E-2</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.35">
@@ -3492,20 +3492,20 @@
         <v>3.3351457186432043E-3</v>
       </c>
       <c r="Y24">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="Z24">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="AA24">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB24">
         <f t="shared" si="3"/>
-        <v>5.4926814113654986E-2</v>
+        <v>2.0617111396875849E-2</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.35">
@@ -3576,20 +3576,20 @@
         <v>4.6363533717789568E-3</v>
       </c>
       <c r="Y25">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="Z25">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6116964734231178</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-4.0821994520255166E-2</v>
       </c>
       <c r="AA25">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8863709892679585</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB25">
         <f t="shared" si="3"/>
-        <v>6.8318643670305351E-2</v>
+        <v>2.5904247639501662E-2</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.35">
@@ -3660,20 +3660,20 @@
         <v>3.1009539353891694E-3</v>
       </c>
       <c r="Y26">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="Z26">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.585709659315846</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-5.1293294387550578E-2</v>
       </c>
       <c r="AA26">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8010658346990791</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB26">
         <f t="shared" si="3"/>
-        <v>5.3839190323171478E-2</v>
+        <v>2.1042325782678128E-2</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.35">
@@ -3744,20 +3744,20 @@
         <v>3.1303571212109218E-3</v>
       </c>
       <c r="Y27">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="Z27">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="AA27">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB27">
         <f t="shared" si="3"/>
-        <v>5.4926814113654986E-2</v>
+        <v>2.0617111396875849E-2</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.35">
@@ -3828,20 +3828,20 @@
         <v>3.3858286475286349E-3</v>
       </c>
       <c r="Y28">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.6644562419294169</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="Z28">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.585709659315846</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-5.1293294387550578E-2</v>
       </c>
       <c r="AA28">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="AB28">
         <f t="shared" si="3"/>
-        <v>4.0176827864066803E-2</v>
+        <v>1.586254442348526E-2</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.35">
@@ -3912,20 +3912,20 @@
         <v>3.3858286475286349E-3</v>
       </c>
       <c r="Y29">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6116964734231178</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-4.0821994520255166E-2</v>
       </c>
       <c r="AA29">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8010658346990791</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB29">
         <f t="shared" si="3"/>
-        <v>5.4380283181595539E-2</v>
+        <v>2.0827548224619984E-2</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.35">
@@ -3996,20 +3996,20 @@
         <v>3.2840062847118239E-3</v>
       </c>
       <c r="Y30">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="Z30">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.585709659315846</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-5.1293294387550578E-2</v>
       </c>
       <c r="AA30">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8010658346990791</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB30">
         <f t="shared" si="3"/>
-        <v>5.3839190323171478E-2</v>
+        <v>2.1042325782678128E-2</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.35">
@@ -4080,20 +4080,20 @@
         <v>3.4401141223554918E-3</v>
       </c>
       <c r="Y31">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.8010658346990791</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>2.9558802241544429E-2</v>
       </c>
       <c r="Z31">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="AA31">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9153794999769969</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>6.7658648473814864E-2</v>
       </c>
       <c r="AB31">
         <f t="shared" si="3"/>
-        <v>5.6036409362151561E-2</v>
+        <v>2.0208743926043816E-2</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.35">
@@ -4164,20 +4164,20 @@
         <v>3.1570426012529937E-3</v>
       </c>
       <c r="Y32">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="Z32">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.585709659315846</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-5.1293294387550578E-2</v>
       </c>
       <c r="AA32">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8010658346990791</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB32">
         <f t="shared" si="3"/>
-        <v>5.3839190323171478E-2</v>
+        <v>2.1042325782678128E-2</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -4248,20 +4248,20 @@
         <v>3.8188506389133458E-3</v>
       </c>
       <c r="Y33">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="Z33">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="AA33">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8863709892679585</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB33">
         <f t="shared" si="3"/>
-        <v>5.4926814113654986E-2</v>
+        <v>2.0617111396875849E-2</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.35">
@@ -4332,20 +4332,20 @@
         <v>3.2611000381207386E-3</v>
       </c>
       <c r="Y34">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="Z34">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="AA34">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB34">
         <f t="shared" si="3"/>
-        <v>5.4926814113654986E-2</v>
+        <v>2.0617111396875849E-2</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.35">
@@ -4416,20 +4416,20 @@
         <v>3.4163905161264875E-3</v>
       </c>
       <c r="Y35">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="Z35">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6644562419294169</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="AA35">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9153794999769969</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>6.7658648473814864E-2</v>
       </c>
       <c r="AB35">
         <f t="shared" si="3"/>
-        <v>5.5478837772898408E-2</v>
+        <v>2.0410885006989385E-2</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.35">
@@ -4500,20 +4500,20 @@
         <v>3.1270864211269097E-3</v>
       </c>
       <c r="Y36">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.6644562419294169</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="Z36">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.5599814183292713</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-6.1875403718087529E-2</v>
       </c>
       <c r="AA36">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="AB36">
         <f t="shared" si="3"/>
-        <v>5.3303481428645709E-2</v>
+        <v>2.1261579796208196E-2</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.35">
@@ -4584,20 +4584,20 @@
         <v>3.4495150546990511E-3</v>
       </c>
       <c r="Y37">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="Z37">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="AA37">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB37">
         <f t="shared" si="3"/>
-        <v>5.4926814113654986E-2</v>
+        <v>2.0617111396875849E-2</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.35">
@@ -4668,20 +4668,20 @@
         <v>3.1359227769991375E-3</v>
       </c>
       <c r="Y38">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.8010658346990791</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>2.9558802241544429E-2</v>
       </c>
       <c r="Z38">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="AA38">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9153794999769969</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>6.7658648473814864E-2</v>
       </c>
       <c r="AB38">
         <f t="shared" si="3"/>
-        <v>5.6036409362151561E-2</v>
+        <v>2.0208743926043816E-2</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
@@ -4752,20 +4752,20 @@
         <v>3.2970040060210383E-3</v>
       </c>
       <c r="Y39">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="Z39">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6644562419294169</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="AA39">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB39">
         <f t="shared" si="3"/>
-        <v>4.140039443239768E-2</v>
+        <v>1.5384203148309978E-2</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
@@ -4836,20 +4836,20 @@
         <v>4.731827345175914E-3</v>
       </c>
       <c r="Y40">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="Z40">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="AA40">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8863709892679585</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB40">
         <f t="shared" si="3"/>
-        <v>5.4926814113654986E-2</v>
+        <v>2.0617111396875849E-2</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
@@ -4920,20 +4920,20 @@
         <v>7.6547101529929129E-3</v>
       </c>
       <c r="Y41">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="Z41">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.585709659315846</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-5.1293294387550578E-2</v>
       </c>
       <c r="AA41">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9742740725630656</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>8.6177696241052412E-2</v>
       </c>
       <c r="AB41">
         <f t="shared" si="3"/>
-        <v>9.5655665636965204E-2</v>
+        <v>3.6273429430474645E-2</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.35">
@@ -5004,20 +5004,20 @@
         <v>3.2347153051164972E-3</v>
       </c>
       <c r="Y42">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="AA42">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB42">
         <f t="shared" si="3"/>
-        <v>4.0988453624945166E-2</v>
+        <v>1.5540411981994171E-2</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.35">
@@ -5088,20 +5088,20 @@
         <v>3.7365871844980301E-3</v>
       </c>
       <c r="Y43">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.8010658346990791</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>2.9558802241544429E-2</v>
       </c>
       <c r="Z43">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="AA43">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9153794999769969</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>6.7658648473814864E-2</v>
       </c>
       <c r="AB43">
         <f t="shared" si="3"/>
-        <v>5.6036409362151561E-2</v>
+        <v>2.0208743926043816E-2</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.35">
@@ -5172,20 +5172,20 @@
         <v>3.0908838625917667E-3</v>
       </c>
       <c r="Y44">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="Z44">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="AA44">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8863709892679585</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB44">
         <f t="shared" si="3"/>
-        <v>4.1816475313793726E-2</v>
+        <v>1.5231103647796521E-2</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.35">
@@ -5256,20 +5256,20 @@
         <v>3.0928807413129855E-3</v>
       </c>
       <c r="Y45">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="Z45">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6644562419294169</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="AA45">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB45">
         <f t="shared" si="3"/>
-        <v>5.5478837772898408E-2</v>
+        <v>2.0410885006989385E-2</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.35">
@@ -5340,20 +5340,20 @@
         <v>3.4610202407590472E-3</v>
       </c>
       <c r="Y46">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="Z46">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="AA46">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8863709892679585</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB46">
         <f t="shared" si="3"/>
-        <v>4.1816475313793726E-2</v>
+        <v>1.5231103647796521E-2</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.35">
@@ -5424,20 +5424,20 @@
         <v>3.4963252656081026E-3</v>
       </c>
       <c r="Y47">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="Z47">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6644562419294169</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="AA47">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB47">
         <f t="shared" si="3"/>
-        <v>4.140039443239768E-2</v>
+        <v>1.5384203148309978E-2</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.35">
@@ -5508,20 +5508,20 @@
         <v>3.187050371155891E-3</v>
       </c>
       <c r="Y48">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.8010658346990791</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>2.9558802241544429E-2</v>
       </c>
       <c r="Z48">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="AA48">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9153794999769969</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>6.7658648473814864E-2</v>
       </c>
       <c r="AB48">
         <f t="shared" si="3"/>
-        <v>5.6036409362151561E-2</v>
+        <v>2.0208743926043816E-2</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.35">
@@ -5592,20 +5592,20 @@
         <v>3.0193108779371599E-3</v>
       </c>
       <c r="Y49">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="Z49">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="AA49">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB49">
         <f t="shared" si="3"/>
-        <v>5.4926814113654986E-2</v>
+        <v>2.0617111396875849E-2</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.35">
@@ -5676,20 +5676,20 @@
         <v>3.071047346779402E-3</v>
       </c>
       <c r="Y50">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>0</v>
       </c>
       <c r="Z50">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6116964734231178</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-4.0821994520255166E-2</v>
       </c>
       <c r="AA50">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB50">
         <f t="shared" si="3"/>
-        <v>5.4380283181595539E-2</v>
+        <v>2.0827548224619984E-2</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.35">
@@ -5760,20 +5760,20 @@
         <v>4.8409172195352148E-3</v>
       </c>
       <c r="Y51">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="Z51">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.585709659315846</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-5.1293294387550578E-2</v>
       </c>
       <c r="AA51">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9153794999769969</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>6.7658648473814864E-2</v>
       </c>
       <c r="AB51">
         <f t="shared" si="3"/>
-        <v>8.1577222296464483E-2</v>
+        <v>3.1246747571795241E-2</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.35">
@@ -5844,20 +5844,20 @@
         <v>3.1132498103861412E-3</v>
       </c>
       <c r="Y52">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="Z52">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.5599814183292713</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-6.1875403718087529E-2</v>
       </c>
       <c r="AA52">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>0</v>
       </c>
       <c r="AB52">
         <f t="shared" si="3"/>
-        <v>3.9777061747388404E-2</v>
+        <v>1.6028671547642325E-2</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.35">
@@ -5928,20 +5928,20 @@
         <v>5.3679176144036979E-3</v>
       </c>
       <c r="Y53">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="Z53">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9742740725630656</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>8.6177696241052412E-2</v>
       </c>
       <c r="AB53">
         <f t="shared" si="3"/>
-        <v>5.6599584639038122E-2</v>
+        <v>2.0010567935347619E-2</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.35">
@@ -6012,20 +6012,20 @@
         <v>5.3834551170713757E-3</v>
       </c>
       <c r="Y54">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.6644562419294169</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="Z54">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.534509177617855</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-7.2570692834835374E-2</v>
       </c>
       <c r="AA54">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB54">
         <f t="shared" si="3"/>
-        <v>6.629952260793974E-2</v>
+        <v>2.6718359957814238E-2</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.35">
@@ -6096,20 +6096,20 @@
         <v>3.157964334726288E-3</v>
       </c>
       <c r="Y55">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>0</v>
       </c>
       <c r="Z55">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="AA55">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB55">
         <f t="shared" si="3"/>
-        <v>4.0988453624945166E-2</v>
+        <v>1.5540411981994171E-2</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.35">
@@ -6180,20 +6180,20 @@
         <v>4.5724640231131859E-3</v>
       </c>
       <c r="Y56">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.8010658346990791</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>2.9558802241544429E-2</v>
       </c>
       <c r="Z56">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6644562419294169</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="AA56">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9446795510655241</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>7.6961041136128394E-2</v>
       </c>
       <c r="AB56">
         <f t="shared" si="3"/>
-        <v>6.9698771821256236E-2</v>
+        <v>2.538852528523668E-2</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.35">
@@ -6264,20 +6264,20 @@
         <v>3.3414160168904051E-3</v>
       </c>
       <c r="Y57">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="Z57">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="AA57">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB57">
         <f t="shared" si="3"/>
-        <v>5.4926814113654986E-2</v>
+        <v>2.0617111396875849E-2</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.35">
@@ -6348,20 +6348,20 @@
         <v>3.1792521978924546E-3</v>
       </c>
       <c r="Y58">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="Z58">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6644562419294169</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="AA58">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB58">
         <f t="shared" si="3"/>
-        <v>4.140039443239768E-2</v>
+        <v>1.5384203148309978E-2</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.35">
@@ -6432,20 +6432,20 @@
         <v>3.3624599660399333E-3</v>
       </c>
       <c r="Y59">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="Z59">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.534509177617855</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-7.2570692834835374E-2</v>
       </c>
       <c r="AA59">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.7456010150169163</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>9.950330853168092E-3</v>
       </c>
       <c r="AB59">
         <f t="shared" si="3"/>
-        <v>5.2773102926682434E-2</v>
+        <v>2.1485451709248368E-2</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.35">
@@ -6516,20 +6516,20 @@
         <v>3.0193538814245456E-3</v>
       </c>
       <c r="Y60">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>0</v>
       </c>
       <c r="Z60">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="AA60">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB60">
         <f t="shared" si="3"/>
-        <v>4.0988453624945166E-2</v>
+        <v>1.5540411981994171E-2</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.35">
@@ -6600,20 +6600,20 @@
         <v>3.0243671843956333E-3</v>
       </c>
       <c r="Y61">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="Z61">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="AA61">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8863709892679585</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB61">
         <f t="shared" si="3"/>
-        <v>4.1816475313793726E-2</v>
+        <v>1.5231103647796521E-2</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.35">
@@ -6684,20 +6684,20 @@
         <v>5.5237368363655111E-3</v>
       </c>
       <c r="Y62">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="Z62">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="AA62">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>3.0343583944356758</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>0.10436001532424286</v>
       </c>
       <c r="AB62">
         <f t="shared" si="3"/>
-        <v>8.4906451894847856E-2</v>
+        <v>3.0020663277006889E-2</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.35">
@@ -6768,20 +6768,20 @@
         <v>4.4739424041467394E-3</v>
       </c>
       <c r="Y63">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="Z63">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6116964734231178</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-4.0821994520255166E-2</v>
       </c>
       <c r="AA63">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9446795510655241</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>7.6961041136128394E-2</v>
       </c>
       <c r="AB63">
         <f t="shared" si="3"/>
-        <v>8.2397087010806086E-2</v>
+        <v>3.0930929498181069E-2</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.35">
@@ -6852,20 +6852,20 @@
         <v>3.2255089532494787E-3</v>
       </c>
       <c r="Y64">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>0</v>
       </c>
       <c r="Z64">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6379444593541526</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-3.0459207484708574E-2</v>
       </c>
       <c r="AA64">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB64">
         <f t="shared" si="3"/>
-        <v>4.0988453624945166E-2</v>
+        <v>1.5540411981994171E-2</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.35">
@@ -6936,20 +6936,20 @@
         <v>3.413229426799249E-3</v>
       </c>
       <c r="Y65">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>0</v>
       </c>
       <c r="Z65">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6116964734231178</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-4.0821994520255166E-2</v>
       </c>
       <c r="AA65">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8010658346990791</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB65">
         <f t="shared" si="3"/>
-        <v>5.4380283181595539E-2</v>
+        <v>2.0827548224619984E-2</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.35">
@@ -7020,20 +7020,20 @@
         <v>3.0575583491919659E-3</v>
       </c>
       <c r="Y66">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="Z66">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6644562419294169</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="AA66">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8576511180631639</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB66">
         <f t="shared" si="3"/>
-        <v>5.5478837772898408E-2</v>
+        <v>2.0410885006989385E-2</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.35">
@@ -7104,20 +7104,20 @@
         <v>3.609083481225025E-3</v>
       </c>
       <c r="Y67">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.8010658346990791</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>2.9558802241544429E-2</v>
       </c>
       <c r="Z67">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="AA67">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.9153794999769969</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>6.7658648473814864E-2</v>
       </c>
       <c r="AB67">
         <f t="shared" si="3"/>
-        <v>5.6036409362151561E-2</v>
+        <v>2.0208743926043816E-2</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.35">
@@ -7188,20 +7188,20 @@
         <v>7.21816696245005E-3</v>
       </c>
       <c r="Y68">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.8863709892679585</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>5.8268908123975824E-2</v>
       </c>
       <c r="Z68">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6644562419294169</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="AA68">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>3.1581929096897672</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>0.13976194237515863</v>
       </c>
       <c r="AB68">
         <f t="shared" ref="AB68:AB72" si="7">(Y68-Z68)/1.96</f>
-        <v>0.11322180986660289</v>
+        <v>4.0036538490558826E-2</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.35">
@@ -7272,20 +7272,20 @@
         <v>3.4422677991651496E-3</v>
       </c>
       <c r="Y69">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7731947639642978</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>1.980262729617973E-2</v>
       </c>
       <c r="Z69">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6644562419294169</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="AA69">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8863709892679585</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB69">
         <f t="shared" si="7"/>
-        <v>5.5478837772898408E-2</v>
+        <v>2.0410885006989385E-2</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.35">
@@ -7356,20 +7356,20 @@
         <v>4.0033087284456915E-3</v>
       </c>
       <c r="Y70">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.6912344723492621</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>-1.0050335853501451E-2</v>
       </c>
       <c r="Z70">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.585709659315846</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-5.1293294387550578E-2</v>
       </c>
       <c r="AA70">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB70">
         <f t="shared" si="7"/>
-        <v>5.3839190323171478E-2</v>
+        <v>2.1042325782678128E-2</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.35">
@@ -7440,20 +7440,20 @@
         <v>3.1008536966410077E-3</v>
       </c>
       <c r="Y71">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>0</v>
       </c>
       <c r="Z71">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6116964734231178</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-4.0821994520255166E-2</v>
       </c>
       <c r="AA71">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB71">
         <f t="shared" si="7"/>
-        <v>5.4380283181595539E-2</v>
+        <v>2.0827548224619984E-2</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.35">
@@ -7524,20 +7524,20 @@
         <v>3.4830228110857933E-3</v>
       </c>
       <c r="Y72">
-        <f>EXP(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
-        <v>2.7182818284590451</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
+        <v>0</v>
       </c>
       <c r="Z72">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Lower]])</f>
-        <v>2.6116964734231178</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Lower]])</f>
+        <v>-4.0821994520255166E-2</v>
       </c>
       <c r="AA72">
-        <f>EXP(Table004__Page_7_8[[#This Row],[Upper]])</f>
-        <v>2.8292170143515598</v>
+        <f>LN(Table004__Page_7_8[[#This Row],[Upper]])</f>
+        <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB72">
         <f t="shared" si="7"/>
-        <v>5.4380283181595539E-2</v>
+        <v>2.0827548224619984E-2</v>
       </c>
     </row>
   </sheetData>

--- a/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/mokry_obesity_2016.xlsx
+++ b/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/mokry_obesity_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f99f7067dc2a9a5/Documents/R/Working Directory/Data_Science_MSc/Dissertation_Bayes_MR/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{22C4E43D-6371-4515-9FCB-E71DF9F4DBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4F584BA-4AD1-4B06-BBDC-BB0F4958DBBE}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{22C4E43D-6371-4515-9FCB-E71DF9F4DBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84C37345-654B-4FE7-93BB-D2F8EBED59C3}"/>
   <bookViews>
     <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{8A3BB852-7168-48D5-AFAC-CE153936FD9B}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="337">
   <si>
     <t>BMI-Associated</t>
   </si>
@@ -1056,6 +1056,12 @@
   </si>
   <si>
     <t>Upp_CI</t>
+  </si>
+  <si>
+    <t>SE_Lower_Only</t>
+  </si>
+  <si>
+    <t>SE_Both</t>
   </si>
 </sst>
 </file>
@@ -1154,6 +1160,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1521,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ADCFF7-C1EB-4801-B550-02DC019036B8}">
-  <dimension ref="A1:AB72"/>
+  <dimension ref="A1:AD72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3:AB72"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:W72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1545,7 +1555,7 @@
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1614,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1657,10 +1667,13 @@
         <v>334</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1727,6 +1740,10 @@
         <f>U3/T3</f>
         <v>1.7106513699587575E-3</v>
       </c>
+      <c r="W3">
+        <f>V3*10</f>
+        <v>1.7106513699587576E-2</v>
+      </c>
       <c r="Y3">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>0</v>
@@ -1743,8 +1760,16 @@
         <f>(Y3-Z3)/1.96</f>
         <v>1.5540411981994171E-2</v>
       </c>
+      <c r="AC3">
+        <f>(AA3-Z3)/2/1.96</f>
+        <v>1.7775489958670895E-2</v>
+      </c>
+      <c r="AD3">
+        <f>(AA3-Y3)/1.96</f>
+        <v>2.0010567935347619E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1811,6 +1836,10 @@
         <f t="shared" ref="V4:V67" si="2">U4/T4</f>
         <v>3.649024665057384E-3</v>
       </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W67" si="3">V4*10</f>
+        <v>3.6490246650573842E-2</v>
+      </c>
       <c r="Y4">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>0</v>
@@ -1824,11 +1853,19 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB67" si="3">(Y4-Z4)/1.96</f>
+        <f t="shared" ref="AB4:AB67" si="4">(Y4-Z4)/1.96</f>
         <v>2.0827548224619984E-2</v>
       </c>
+      <c r="AC4">
+        <f t="shared" ref="AC4:AC67" si="5">(AA4-Z4)/2/1.96</f>
+        <v>2.0419058079983801E-2</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD67" si="6">(AA4-Y4)/1.96</f>
+        <v>2.0010567935347619E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1895,6 +1932,10 @@
         <f t="shared" si="2"/>
         <v>4.0064745893953089E-3</v>
       </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>4.0064745893953091E-2</v>
+      </c>
       <c r="Y5">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>4.8790164169432049E-2</v>
@@ -1908,11 +1949,19 @@
         <v>9.5310179804324935E-2</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9816241487889776E-2</v>
       </c>
+      <c r="AC5">
+        <f t="shared" si="5"/>
+        <v>2.1775471671213478E-2</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="6"/>
+        <v>2.3734701854537188E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1979,6 +2028,10 @@
         <f t="shared" si="2"/>
         <v>3.0940714867255959E-3</v>
       </c>
+      <c r="W6">
+        <f t="shared" si="3"/>
+        <v>3.0940714867255959E-2</v>
+      </c>
       <c r="Y6">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>1.980262729617973E-2</v>
@@ -1992,11 +2045,19 @@
         <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5231103647796521E-2</v>
       </c>
+      <c r="AC6">
+        <f t="shared" si="5"/>
+        <v>1.5010331638503445E-2</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="6"/>
+        <v>1.4789559629210367E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2063,6 +2124,10 @@
         <f t="shared" si="2"/>
         <v>3.8703756544317736E-3</v>
       </c>
+      <c r="W7">
+        <f t="shared" si="3"/>
+        <v>3.8703756544317736E-2</v>
+      </c>
       <c r="Y7">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>0</v>
@@ -2076,11 +2141,19 @@
         <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0827548224619984E-2</v>
       </c>
+      <c r="AC7">
+        <f t="shared" si="5"/>
+        <v>2.286024456369572E-2</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="6"/>
+        <v>2.4892940902771454E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -2147,6 +2220,10 @@
         <f t="shared" si="2"/>
         <v>4.017638968914862E-3</v>
       </c>
+      <c r="W8">
+        <f t="shared" si="3"/>
+        <v>4.017638968914862E-2</v>
+      </c>
       <c r="Y8">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>3.9220713153281329E-2</v>
@@ -2160,11 +2237,19 @@
         <v>7.6961041136128394E-2</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5138290309583051E-2</v>
       </c>
+      <c r="AC8">
+        <f t="shared" si="5"/>
+        <v>2.219677984429333E-2</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="6"/>
+        <v>1.9255269379003605E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -2231,6 +2316,10 @@
         <f t="shared" si="2"/>
         <v>3.7386530646937952E-3</v>
       </c>
+      <c r="W9">
+        <f t="shared" si="3"/>
+        <v>3.7386530646937949E-2</v>
+      </c>
       <c r="Y9">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>2.9558802241544429E-2</v>
@@ -2244,11 +2333,19 @@
         <v>7.6961041136128394E-2</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0208743926043816E-2</v>
       </c>
+      <c r="AC9">
+        <f t="shared" si="5"/>
+        <v>2.219677984429333E-2</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="6"/>
+        <v>2.418481576254284E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -2315,6 +2412,10 @@
         <f t="shared" si="2"/>
         <v>3.1102284521522887E-3</v>
       </c>
+      <c r="W10">
+        <f t="shared" si="3"/>
+        <v>3.1102284521522888E-2</v>
+      </c>
       <c r="Y10">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>-1.0050335853501451E-2</v>
@@ -2328,11 +2429,19 @@
         <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5699825850384548E-2</v>
       </c>
+      <c r="AC10">
+        <f t="shared" si="5"/>
+        <v>1.795428488821418E-2</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="6"/>
+        <v>2.0208743926043816E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -2399,6 +2508,10 @@
         <f t="shared" si="2"/>
         <v>3.1802854664185814E-3</v>
       </c>
+      <c r="W11">
+        <f t="shared" si="3"/>
+        <v>3.1802854664185816E-2</v>
+      </c>
       <c r="Y11">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>1.980262729617973E-2</v>
@@ -2412,11 +2525,19 @@
         <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0410885006989385E-2</v>
       </c>
+      <c r="AC11">
+        <f t="shared" si="5"/>
+        <v>2.0018269245279413E-2</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="6"/>
+        <v>1.9625653483569438E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -2483,6 +2604,10 @@
         <f t="shared" si="2"/>
         <v>3.0830327170072495E-3</v>
       </c>
+      <c r="W12">
+        <f t="shared" si="3"/>
+        <v>3.0830327170072495E-2</v>
+      </c>
       <c r="Y12">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>5.8268908123975824E-2</v>
@@ -2496,11 +2621,19 @@
         <v>8.6177696241052412E-2</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9625653483569438E-2</v>
       </c>
+      <c r="AC12">
+        <f t="shared" si="5"/>
+        <v>1.6932415547161402E-2</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="6"/>
+        <v>1.4239177610753362E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -2567,6 +2700,10 @@
         <f t="shared" si="2"/>
         <v>3.1217885107430307E-3</v>
       </c>
+      <c r="W13">
+        <f t="shared" si="3"/>
+        <v>3.1217885107430308E-2</v>
+      </c>
       <c r="Y13">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>9.950330853168092E-3</v>
@@ -2580,11 +2717,19 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0617111396875849E-2</v>
       </c>
+      <c r="AC13">
+        <f t="shared" si="5"/>
+        <v>1.7775489958670895E-2</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="6"/>
+        <v>1.4933868520465937E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -2651,6 +2796,10 @@
         <f t="shared" si="2"/>
         <v>4.6164610650375592E-3</v>
       </c>
+      <c r="W14">
+        <f t="shared" si="3"/>
+        <v>4.6164610650375595E-2</v>
+      </c>
       <c r="Y14">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>1.980262729617973E-2</v>
@@ -2664,11 +2813,19 @@
         <v>7.6961041136128394E-2</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5643793255555259E-2</v>
       </c>
+      <c r="AC14">
+        <f t="shared" si="5"/>
+        <v>2.7403124648172694E-2</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="6"/>
+        <v>2.9162456040790135E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -2735,6 +2892,10 @@
         <f t="shared" si="2"/>
         <v>4.5505201226154141E-3</v>
       </c>
+      <c r="W15">
+        <f t="shared" si="3"/>
+        <v>4.5505201226154139E-2</v>
+      </c>
       <c r="Y15">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>5.8268908123975824E-2</v>
@@ -2748,11 +2909,19 @@
         <v>0.11332868530700327</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9729034757130523E-2</v>
       </c>
+      <c r="AC15">
+        <f t="shared" si="5"/>
+        <v>2.8910378904847774E-2</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="6"/>
+        <v>2.8091723052565024E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -2819,6 +2988,10 @@
         <f t="shared" si="2"/>
         <v>4.1554174164966174E-3</v>
       </c>
+      <c r="W16">
+        <f t="shared" si="3"/>
+        <v>4.1554174164966172E-2</v>
+      </c>
       <c r="Y16">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>4.8790164169432049E-2</v>
@@ -2832,11 +3005,19 @@
         <v>8.6177696241052412E-2</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4892940902771454E-2</v>
       </c>
+      <c r="AC16">
+        <f t="shared" si="5"/>
+        <v>2.1984106183941941E-2</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="6"/>
+        <v>1.9075271465112429E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -2903,6 +3084,10 @@
         <f t="shared" si="2"/>
         <v>3.6469588572924081E-3</v>
       </c>
+      <c r="W17">
+        <f t="shared" si="3"/>
+        <v>3.646958857292408E-2</v>
+      </c>
       <c r="Y17">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>-1.0050335853501451E-2</v>
@@ -2916,11 +3101,19 @@
         <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1042325782678128E-2</v>
       </c>
+      <c r="AC17">
+        <f t="shared" si="5"/>
+        <v>2.0625534854360972E-2</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="6"/>
+        <v>2.0208743926043816E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -2987,6 +3180,10 @@
         <f t="shared" si="2"/>
         <v>3.1016834013285568E-3</v>
       </c>
+      <c r="W18">
+        <f t="shared" si="3"/>
+        <v>3.1016834013285567E-2</v>
+      </c>
       <c r="Y18">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>-3.0459207484708574E-2</v>
@@ -3000,11 +3197,19 @@
         <v>9.950330853168092E-3</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6028671547642325E-2</v>
       </c>
+      <c r="AC18">
+        <f t="shared" si="5"/>
+        <v>1.832289147225909E-2</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="6"/>
+        <v>2.0617111396875849E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -3071,6 +3276,10 @@
         <f t="shared" si="2"/>
         <v>3.1093712759504904E-3</v>
       </c>
+      <c r="W19">
+        <f t="shared" si="3"/>
+        <v>3.1093712759504906E-2</v>
+      </c>
       <c r="Y19">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>1.980262729617973E-2</v>
@@ -3084,11 +3293,19 @@
         <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0410885006989385E-2</v>
       </c>
+      <c r="AC19">
+        <f t="shared" si="5"/>
+        <v>1.7600222318099878E-2</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="6"/>
+        <v>1.4789559629210367E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -3155,6 +3372,10 @@
         <f t="shared" si="2"/>
         <v>3.0459209921138621E-3</v>
       </c>
+      <c r="W20">
+        <f t="shared" si="3"/>
+        <v>3.0459209921138621E-2</v>
+      </c>
       <c r="Y20">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>-1.0050335853501451E-2</v>
@@ -3168,11 +3389,19 @@
         <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5699825850384548E-2</v>
       </c>
+      <c r="AC20">
+        <f t="shared" si="5"/>
+        <v>1.795428488821418E-2</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="6"/>
+        <v>2.0208743926043816E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -3239,6 +3468,10 @@
         <f t="shared" si="2"/>
         <v>3.5748833303499571E-3</v>
       </c>
+      <c r="W21">
+        <f t="shared" si="3"/>
+        <v>3.5748833303499573E-2</v>
+      </c>
       <c r="Y21">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>-3.0459207484708574E-2</v>
@@ -3252,11 +3485,19 @@
         <v>9.950330853168092E-3</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6028671547642325E-2</v>
       </c>
+      <c r="AC21">
+        <f t="shared" si="5"/>
+        <v>1.832289147225909E-2</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="6"/>
+        <v>2.0617111396875849E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -3323,6 +3564,10 @@
         <f t="shared" si="2"/>
         <v>3.1102577503204702E-3</v>
       </c>
+      <c r="W22">
+        <f t="shared" si="3"/>
+        <v>3.1102577503204703E-2</v>
+      </c>
       <c r="Y22">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>1.980262729617973E-2</v>
@@ -3336,11 +3581,19 @@
         <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5231103647796521E-2</v>
       </c>
+      <c r="AC22">
+        <f t="shared" si="5"/>
+        <v>1.7428378565682977E-2</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="6"/>
+        <v>1.9625653483569438E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -3407,6 +3660,10 @@
         <f t="shared" si="2"/>
         <v>3.9103977687082164E-3</v>
       </c>
+      <c r="W23">
+        <f t="shared" si="3"/>
+        <v>3.9103977687082167E-2</v>
+      </c>
       <c r="Y23">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>-1.0050335853501451E-2</v>
@@ -3420,11 +3677,19 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1042325782678128E-2</v>
       </c>
+      <c r="AC23">
+        <f t="shared" si="5"/>
+        <v>2.3090308046130589E-2</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="6"/>
+        <v>2.5138290309583051E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -3491,6 +3756,10 @@
         <f t="shared" si="2"/>
         <v>3.3351457186432043E-3</v>
       </c>
+      <c r="W24">
+        <f t="shared" si="3"/>
+        <v>3.3351457186432044E-2</v>
+      </c>
       <c r="Y24">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>9.950330853168092E-3</v>
@@ -3504,11 +3773,19 @@
         <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0617111396875849E-2</v>
       </c>
+      <c r="AC24">
+        <f t="shared" si="5"/>
+        <v>2.021667644238281E-2</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="6"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>154</v>
       </c>
@@ -3575,6 +3852,10 @@
         <f t="shared" si="2"/>
         <v>4.6363533717789568E-3</v>
       </c>
+      <c r="W25">
+        <f t="shared" si="3"/>
+        <v>4.6363533717789569E-2</v>
+      </c>
       <c r="Y25">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>9.950330853168092E-3</v>
@@ -3588,11 +3869,19 @@
         <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5904247639501662E-2</v>
       </c>
+      <c r="AC25">
+        <f t="shared" si="5"/>
+        <v>2.5278291490875252E-2</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="6"/>
+        <v>2.4652335342248845E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>157</v>
       </c>
@@ -3659,6 +3948,10 @@
         <f t="shared" si="2"/>
         <v>3.1009539353891694E-3</v>
       </c>
+      <c r="W26">
+        <f t="shared" si="3"/>
+        <v>3.1009539353891693E-2</v>
+      </c>
       <c r="Y26">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>-1.0050335853501451E-2</v>
@@ -3672,11 +3965,19 @@
         <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1042325782678128E-2</v>
       </c>
+      <c r="AC26">
+        <f t="shared" si="5"/>
+        <v>2.0625534854360972E-2</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="6"/>
+        <v>2.0208743926043816E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -3743,6 +4044,10 @@
         <f t="shared" si="2"/>
         <v>3.1303571212109218E-3</v>
       </c>
+      <c r="W27">
+        <f t="shared" si="3"/>
+        <v>3.1303571212109221E-2</v>
+      </c>
       <c r="Y27">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>9.950330853168092E-3</v>
@@ -3756,11 +4061,19 @@
         <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0617111396875849E-2</v>
       </c>
+      <c r="AC27">
+        <f t="shared" si="5"/>
+        <v>2.021667644238281E-2</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="6"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>166</v>
       </c>
@@ -3827,6 +4140,10 @@
         <f t="shared" si="2"/>
         <v>3.3858286475286349E-3</v>
       </c>
+      <c r="W28">
+        <f t="shared" si="3"/>
+        <v>3.3858286475286346E-2</v>
+      </c>
       <c r="Y28">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>-2.0202707317519466E-2</v>
@@ -3840,11 +4157,19 @@
         <v>1.980262729617973E-2</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.586254442348526E-2</v>
       </c>
+      <c r="AC28">
+        <f t="shared" si="5"/>
+        <v>1.8136714715237322E-2</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="6"/>
+        <v>2.0410885006989385E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>171</v>
       </c>
@@ -3911,6 +4236,10 @@
         <f t="shared" si="2"/>
         <v>3.3858286475286349E-3</v>
       </c>
+      <c r="W29">
+        <f t="shared" si="3"/>
+        <v>3.3858286475286346E-2</v>
+      </c>
       <c r="Y29">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>0</v>
@@ -3924,11 +4253,19 @@
         <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0827548224619984E-2</v>
       </c>
+      <c r="AC29">
+        <f t="shared" si="5"/>
+        <v>1.795428488821418E-2</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="6"/>
+        <v>1.5081021551808382E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>176</v>
       </c>
@@ -3995,6 +4332,10 @@
         <f t="shared" si="2"/>
         <v>3.2840062847118239E-3</v>
       </c>
+      <c r="W30">
+        <f t="shared" si="3"/>
+        <v>3.284006284711824E-2</v>
+      </c>
       <c r="Y30">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>-1.0050335853501451E-2</v>
@@ -4008,11 +4349,19 @@
         <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1042325782678128E-2</v>
       </c>
+      <c r="AC30">
+        <f t="shared" si="5"/>
+        <v>2.0625534854360972E-2</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="6"/>
+        <v>2.0208743926043816E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -4079,6 +4428,10 @@
         <f t="shared" si="2"/>
         <v>3.4401141223554918E-3</v>
       </c>
+      <c r="W31">
+        <f t="shared" si="3"/>
+        <v>3.4401141223554921E-2</v>
+      </c>
       <c r="Y31">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>2.9558802241544429E-2</v>
@@ -4092,11 +4445,19 @@
         <v>6.7658648473814864E-2</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0208743926043816E-2</v>
       </c>
+      <c r="AC31">
+        <f t="shared" si="5"/>
+        <v>1.9823720491662328E-2</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="6"/>
+        <v>1.9438697057280834E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>185</v>
       </c>
@@ -4163,6 +4524,10 @@
         <f t="shared" si="2"/>
         <v>3.1570426012529937E-3</v>
       </c>
+      <c r="W32">
+        <f t="shared" si="3"/>
+        <v>3.1570426012529934E-2</v>
+      </c>
       <c r="Y32">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>-1.0050335853501451E-2</v>
@@ -4176,11 +4541,19 @@
         <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1042325782678128E-2</v>
       </c>
+      <c r="AC32">
+        <f t="shared" si="5"/>
+        <v>2.0625534854360972E-2</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="6"/>
+        <v>2.0208743926043816E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>190</v>
       </c>
@@ -4247,6 +4620,10 @@
         <f t="shared" si="2"/>
         <v>3.8188506389133458E-3</v>
       </c>
+      <c r="W33">
+        <f t="shared" si="3"/>
+        <v>3.8188506389133459E-2</v>
+      </c>
       <c r="Y33">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>9.950330853168092E-3</v>
@@ -4260,11 +4637,19 @@
         <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0617111396875849E-2</v>
       </c>
+      <c r="AC33">
+        <f t="shared" si="5"/>
+        <v>2.2634723369562348E-2</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="6"/>
+        <v>2.4652335342248845E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>193</v>
       </c>
@@ -4331,6 +4716,10 @@
         <f t="shared" si="2"/>
         <v>3.2611000381207386E-3</v>
       </c>
+      <c r="W34">
+        <f t="shared" si="3"/>
+        <v>3.2611000381207386E-2</v>
+      </c>
       <c r="Y34">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>9.950330853168092E-3</v>
@@ -4344,11 +4733,19 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0617111396875849E-2</v>
       </c>
+      <c r="AC34">
+        <f t="shared" si="5"/>
+        <v>1.7775489958670895E-2</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="6"/>
+        <v>1.4933868520465937E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>196</v>
       </c>
@@ -4415,6 +4812,10 @@
         <f t="shared" si="2"/>
         <v>3.4163905161264875E-3</v>
       </c>
+      <c r="W35">
+        <f t="shared" si="3"/>
+        <v>3.4163905161264878E-2</v>
+      </c>
       <c r="Y35">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>1.980262729617973E-2</v>
@@ -4428,11 +4829,19 @@
         <v>6.7658648473814864E-2</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0410885006989385E-2</v>
       </c>
+      <c r="AC35">
+        <f t="shared" si="5"/>
+        <v>2.2413611171258761E-2</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="6"/>
+        <v>2.4416337335528129E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>199</v>
       </c>
@@ -4499,6 +4908,10 @@
         <f t="shared" si="2"/>
         <v>3.1270864211269097E-3</v>
       </c>
+      <c r="W36">
+        <f t="shared" si="3"/>
+        <v>3.1270864211269095E-2</v>
+      </c>
       <c r="Y36">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>-2.0202707317519466E-2</v>
@@ -4512,11 +4925,19 @@
         <v>1.980262729617973E-2</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1261579796208196E-2</v>
       </c>
+      <c r="AC36">
+        <f t="shared" si="5"/>
+        <v>2.0836232401598792E-2</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="6"/>
+        <v>2.0410885006989385E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>203</v>
       </c>
@@ -4583,6 +5004,10 @@
         <f t="shared" si="2"/>
         <v>3.4495150546990511E-3</v>
       </c>
+      <c r="W37">
+        <f t="shared" si="3"/>
+        <v>3.4495150546990511E-2</v>
+      </c>
       <c r="Y37">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>9.950330853168092E-3</v>
@@ -4596,11 +5021,19 @@
         <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0617111396875849E-2</v>
       </c>
+      <c r="AC37">
+        <f t="shared" si="5"/>
+        <v>2.021667644238281E-2</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="6"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>207</v>
       </c>
@@ -4667,6 +5100,10 @@
         <f t="shared" si="2"/>
         <v>3.1359227769991375E-3</v>
       </c>
+      <c r="W38">
+        <f t="shared" si="3"/>
+        <v>3.1359227769991373E-2</v>
+      </c>
       <c r="Y38">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>2.9558802241544429E-2</v>
@@ -4680,11 +5117,19 @@
         <v>6.7658648473814864E-2</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0208743926043816E-2</v>
       </c>
+      <c r="AC38">
+        <f t="shared" si="5"/>
+        <v>1.9823720491662328E-2</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="6"/>
+        <v>1.9438697057280834E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -4751,6 +5196,10 @@
         <f t="shared" si="2"/>
         <v>3.2970040060210383E-3</v>
       </c>
+      <c r="W39">
+        <f t="shared" si="3"/>
+        <v>3.2970040060210384E-2</v>
+      </c>
       <c r="Y39">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>9.950330853168092E-3</v>
@@ -4764,11 +5213,19 @@
         <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5384203148309978E-2</v>
       </c>
+      <c r="AC39">
+        <f t="shared" si="5"/>
+        <v>1.7600222318099878E-2</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="6"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>215</v>
       </c>
@@ -4835,6 +5292,10 @@
         <f t="shared" si="2"/>
         <v>4.731827345175914E-3</v>
       </c>
+      <c r="W40">
+        <f t="shared" si="3"/>
+        <v>4.7318273451759138E-2</v>
+      </c>
       <c r="Y40">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>9.950330853168092E-3</v>
@@ -4848,11 +5309,19 @@
         <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0617111396875849E-2</v>
       </c>
+      <c r="AC40">
+        <f t="shared" si="5"/>
+        <v>2.2634723369562348E-2</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="6"/>
+        <v>2.4652335342248845E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>218</v>
       </c>
@@ -4919,6 +5388,10 @@
         <f t="shared" si="2"/>
         <v>7.6547101529929129E-3</v>
       </c>
+      <c r="W41">
+        <f t="shared" si="3"/>
+        <v>7.6547101529929135E-2</v>
+      </c>
       <c r="Y41">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>1.980262729617973E-2</v>
@@ -4932,11 +5405,19 @@
         <v>8.6177696241052412E-2</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6273429430474645E-2</v>
       </c>
+      <c r="AC41">
+        <f t="shared" si="5"/>
+        <v>3.5069130262398725E-2</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="6"/>
+        <v>3.3864831094322805E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>222</v>
       </c>
@@ -5003,6 +5484,10 @@
         <f t="shared" si="2"/>
         <v>3.2347153051164972E-3</v>
       </c>
+      <c r="W42">
+        <f t="shared" si="3"/>
+        <v>3.2347153051164972E-2</v>
+      </c>
       <c r="Y42">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>0</v>
@@ -5016,11 +5501,19 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5540411981994171E-2</v>
       </c>
+      <c r="AC42">
+        <f t="shared" si="5"/>
+        <v>1.7775489958670895E-2</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="6"/>
+        <v>2.0010567935347619E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>226</v>
       </c>
@@ -5087,6 +5580,10 @@
         <f t="shared" si="2"/>
         <v>3.7365871844980301E-3</v>
       </c>
+      <c r="W43">
+        <f t="shared" si="3"/>
+        <v>3.7365871844980303E-2</v>
+      </c>
       <c r="Y43">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>2.9558802241544429E-2</v>
@@ -5100,11 +5597,19 @@
         <v>6.7658648473814864E-2</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0208743926043816E-2</v>
       </c>
+      <c r="AC43">
+        <f t="shared" si="5"/>
+        <v>1.9823720491662328E-2</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="6"/>
+        <v>1.9438697057280834E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>228</v>
       </c>
@@ -5171,6 +5676,10 @@
         <f t="shared" si="2"/>
         <v>3.0908838625917667E-3</v>
       </c>
+      <c r="W44">
+        <f t="shared" si="3"/>
+        <v>3.0908838625917666E-2</v>
+      </c>
       <c r="Y44">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>1.980262729617973E-2</v>
@@ -5184,11 +5693,19 @@
         <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5231103647796521E-2</v>
       </c>
+      <c r="AC44">
+        <f t="shared" si="5"/>
+        <v>1.7428378565682977E-2</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="6"/>
+        <v>1.9625653483569438E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>232</v>
       </c>
@@ -5255,6 +5772,10 @@
         <f t="shared" si="2"/>
         <v>3.0928807413129855E-3</v>
       </c>
+      <c r="W45">
+        <f t="shared" si="3"/>
+        <v>3.0928807413129856E-2</v>
+      </c>
       <c r="Y45">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>1.980262729617973E-2</v>
@@ -5268,11 +5789,19 @@
         <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0410885006989385E-2</v>
       </c>
+      <c r="AC45">
+        <f t="shared" si="5"/>
+        <v>1.7600222318099878E-2</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="6"/>
+        <v>1.4789559629210367E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>235</v>
       </c>
@@ -5339,6 +5868,10 @@
         <f t="shared" si="2"/>
         <v>3.4610202407590472E-3</v>
       </c>
+      <c r="W46">
+        <f t="shared" si="3"/>
+        <v>3.4610202407590475E-2</v>
+      </c>
       <c r="Y46">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>1.980262729617973E-2</v>
@@ -5352,11 +5885,19 @@
         <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5231103647796521E-2</v>
       </c>
+      <c r="AC46">
+        <f t="shared" si="5"/>
+        <v>1.7428378565682977E-2</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="6"/>
+        <v>1.9625653483569438E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>237</v>
       </c>
@@ -5423,6 +5964,10 @@
         <f t="shared" si="2"/>
         <v>3.4963252656081026E-3</v>
       </c>
+      <c r="W47">
+        <f t="shared" si="3"/>
+        <v>3.4963252656081023E-2</v>
+      </c>
       <c r="Y47">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>9.950330853168092E-3</v>
@@ -5436,11 +5981,19 @@
         <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5384203148309978E-2</v>
       </c>
+      <c r="AC47">
+        <f t="shared" si="5"/>
+        <v>1.7600222318099878E-2</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="6"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>240</v>
       </c>
@@ -5507,6 +6060,10 @@
         <f t="shared" si="2"/>
         <v>3.187050371155891E-3</v>
       </c>
+      <c r="W48">
+        <f t="shared" si="3"/>
+        <v>3.187050371155891E-2</v>
+      </c>
       <c r="Y48">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>2.9558802241544429E-2</v>
@@ -5520,11 +6077,19 @@
         <v>6.7658648473814864E-2</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0208743926043816E-2</v>
       </c>
+      <c r="AC48">
+        <f t="shared" si="5"/>
+        <v>1.9823720491662328E-2</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="6"/>
+        <v>1.9438697057280834E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>243</v>
       </c>
@@ -5591,6 +6156,10 @@
         <f t="shared" si="2"/>
         <v>3.0193108779371599E-3</v>
       </c>
+      <c r="W49">
+        <f t="shared" si="3"/>
+        <v>3.0193108779371598E-2</v>
+      </c>
       <c r="Y49">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>9.950330853168092E-3</v>
@@ -5604,11 +6173,19 @@
         <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0617111396875849E-2</v>
       </c>
+      <c r="AC49">
+        <f t="shared" si="5"/>
+        <v>2.021667644238281E-2</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="6"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>246</v>
       </c>
@@ -5675,6 +6252,10 @@
         <f t="shared" si="2"/>
         <v>3.071047346779402E-3</v>
       </c>
+      <c r="W50">
+        <f t="shared" si="3"/>
+        <v>3.0710473467794021E-2</v>
+      </c>
       <c r="Y50">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>0</v>
@@ -5688,11 +6269,19 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0827548224619984E-2</v>
       </c>
+      <c r="AC50">
+        <f t="shared" si="5"/>
+        <v>2.0419058079983801E-2</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="6"/>
+        <v>2.0010567935347619E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>248</v>
       </c>
@@ -5759,6 +6348,10 @@
         <f t="shared" si="2"/>
         <v>4.8409172195352148E-3</v>
       </c>
+      <c r="W51">
+        <f t="shared" si="3"/>
+        <v>4.8409172195352151E-2</v>
+      </c>
       <c r="Y51">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>9.950330853168092E-3</v>
@@ -5772,11 +6365,19 @@
         <v>6.7658648473814864E-2</v>
       </c>
       <c r="AB51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1246747571795241E-2</v>
       </c>
+      <c r="AC51">
+        <f t="shared" si="5"/>
+        <v>3.0344883383001391E-2</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="6"/>
+        <v>2.9443019194207536E-2</v>
+      </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>252</v>
       </c>
@@ -5843,6 +6444,10 @@
         <f t="shared" si="2"/>
         <v>3.1132498103861412E-3</v>
       </c>
+      <c r="W52">
+        <f t="shared" si="3"/>
+        <v>3.1132498103861414E-2</v>
+      </c>
       <c r="Y52">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>-3.0459207484708574E-2</v>
@@ -5856,11 +6461,19 @@
         <v>0</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6028671547642325E-2</v>
       </c>
+      <c r="AC52">
+        <f t="shared" si="5"/>
+        <v>1.5784541764818246E-2</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="6"/>
+        <v>1.5540411981994171E-2</v>
+      </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -5927,6 +6540,10 @@
         <f t="shared" si="2"/>
         <v>5.3679176144036979E-3</v>
       </c>
+      <c r="W53">
+        <f t="shared" si="3"/>
+        <v>5.3679176144036979E-2</v>
+      </c>
       <c r="Y53">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>3.9220713153281329E-2</v>
@@ -5940,11 +6557,19 @@
         <v>8.6177696241052412E-2</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0010567935347619E-2</v>
       </c>
+      <c r="AC53">
+        <f t="shared" si="5"/>
+        <v>2.1984106183941941E-2</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="6"/>
+        <v>2.3957644432536267E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>259</v>
       </c>
@@ -6011,6 +6636,10 @@
         <f t="shared" si="2"/>
         <v>5.3834551170713757E-3</v>
       </c>
+      <c r="W54">
+        <f t="shared" si="3"/>
+        <v>5.3834551170713757E-2</v>
+      </c>
       <c r="Y54">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>-2.0202707317519466E-2</v>
@@ -6024,11 +6653,19 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6718359957814238E-2</v>
       </c>
+      <c r="AC54">
+        <f t="shared" si="5"/>
+        <v>2.851821581329508E-2</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="6"/>
+        <v>3.0318071668775915E-2</v>
+      </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>262</v>
       </c>
@@ -6095,6 +6732,10 @@
         <f t="shared" si="2"/>
         <v>3.157964334726288E-3</v>
       </c>
+      <c r="W55">
+        <f t="shared" si="3"/>
+        <v>3.1579643347262883E-2</v>
+      </c>
       <c r="Y55">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>0</v>
@@ -6108,11 +6749,19 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5540411981994171E-2</v>
       </c>
+      <c r="AC55">
+        <f t="shared" si="5"/>
+        <v>1.7775489958670895E-2</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="6"/>
+        <v>2.0010567935347619E-2</v>
+      </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>265</v>
       </c>
@@ -6179,6 +6828,10 @@
         <f t="shared" si="2"/>
         <v>4.5724640231131859E-3</v>
       </c>
+      <c r="W56">
+        <f t="shared" si="3"/>
+        <v>4.5724640231131861E-2</v>
+      </c>
       <c r="Y56">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>2.9558802241544429E-2</v>
@@ -6192,11 +6845,19 @@
         <v>7.6961041136128394E-2</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.538852528523668E-2</v>
       </c>
+      <c r="AC56">
+        <f t="shared" si="5"/>
+        <v>2.4786670523889762E-2</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="6"/>
+        <v>2.418481576254284E-2</v>
+      </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>268</v>
       </c>
@@ -6263,6 +6924,10 @@
         <f t="shared" si="2"/>
         <v>3.3414160168904051E-3</v>
       </c>
+      <c r="W57">
+        <f t="shared" si="3"/>
+        <v>3.3414160168904049E-2</v>
+      </c>
       <c r="Y57">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>9.950330853168092E-3</v>
@@ -6276,11 +6941,19 @@
         <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0617111396875849E-2</v>
       </c>
+      <c r="AC57">
+        <f t="shared" si="5"/>
+        <v>2.021667644238281E-2</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="6"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>270</v>
       </c>
@@ -6347,6 +7020,10 @@
         <f t="shared" si="2"/>
         <v>3.1792521978924546E-3</v>
       </c>
+      <c r="W58">
+        <f t="shared" si="3"/>
+        <v>3.1792521978924543E-2</v>
+      </c>
       <c r="Y58">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>9.950330853168092E-3</v>
@@ -6360,11 +7037,19 @@
         <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5384203148309978E-2</v>
       </c>
+      <c r="AC58">
+        <f t="shared" si="5"/>
+        <v>1.7600222318099878E-2</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="6"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>273</v>
       </c>
@@ -6431,6 +7116,10 @@
         <f t="shared" si="2"/>
         <v>3.3624599660399333E-3</v>
       </c>
+      <c r="W59">
+        <f t="shared" si="3"/>
+        <v>3.3624599660399331E-2</v>
+      </c>
       <c r="Y59">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>-3.0459207484708574E-2</v>
@@ -6444,11 +7133,19 @@
         <v>9.950330853168092E-3</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1485451709248368E-2</v>
       </c>
+      <c r="AC59">
+        <f t="shared" si="5"/>
+        <v>2.1051281553062108E-2</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="6"/>
+        <v>2.0617111396875849E-2</v>
+      </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>276</v>
       </c>
@@ -6515,6 +7212,10 @@
         <f t="shared" si="2"/>
         <v>3.0193538814245456E-3</v>
       </c>
+      <c r="W60">
+        <f t="shared" si="3"/>
+        <v>3.0193538814245455E-2</v>
+      </c>
       <c r="Y60">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>0</v>
@@ -6528,11 +7229,19 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5540411981994171E-2</v>
       </c>
+      <c r="AC60">
+        <f t="shared" si="5"/>
+        <v>1.7775489958670895E-2</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="6"/>
+        <v>2.0010567935347619E-2</v>
+      </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>279</v>
       </c>
@@ -6599,6 +7308,10 @@
         <f t="shared" si="2"/>
         <v>3.0243671843956333E-3</v>
       </c>
+      <c r="W61">
+        <f t="shared" si="3"/>
+        <v>3.0243671843956335E-2</v>
+      </c>
       <c r="Y61">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>1.980262729617973E-2</v>
@@ -6612,11 +7325,19 @@
         <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5231103647796521E-2</v>
       </c>
+      <c r="AC61">
+        <f t="shared" si="5"/>
+        <v>1.7428378565682977E-2</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="6"/>
+        <v>1.9625653483569438E-2</v>
+      </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>282</v>
       </c>
@@ -6683,6 +7404,10 @@
         <f t="shared" si="2"/>
         <v>5.5237368363655111E-3</v>
       </c>
+      <c r="W62">
+        <f t="shared" si="3"/>
+        <v>5.5237368363655115E-2</v>
+      </c>
       <c r="Y62">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>4.8790164169432049E-2</v>
@@ -6696,11 +7421,19 @@
         <v>0.10436001532424286</v>
       </c>
       <c r="AB62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0020663277006889E-2</v>
       </c>
+      <c r="AC62">
+        <f t="shared" si="5"/>
+        <v>2.9186314075955181E-2</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="6"/>
+        <v>2.8351964874903473E-2</v>
+      </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>287</v>
       </c>
@@ -6767,6 +7500,10 @@
         <f t="shared" si="2"/>
         <v>4.4739424041467394E-3</v>
       </c>
+      <c r="W63">
+        <f t="shared" si="3"/>
+        <v>4.4739424041467392E-2</v>
+      </c>
       <c r="Y63">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>1.980262729617973E-2</v>
@@ -6780,11 +7517,19 @@
         <v>7.6961041136128394E-2</v>
       </c>
       <c r="AB63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0930929498181069E-2</v>
       </c>
+      <c r="AC63">
+        <f t="shared" si="5"/>
+        <v>3.0046692769485604E-2</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="6"/>
+        <v>2.9162456040790135E-2</v>
+      </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>291</v>
       </c>
@@ -6851,6 +7596,10 @@
         <f t="shared" si="2"/>
         <v>3.2255089532494787E-3</v>
       </c>
+      <c r="W64">
+        <f t="shared" si="3"/>
+        <v>3.2255089532494785E-2</v>
+      </c>
       <c r="Y64">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>0</v>
@@ -6864,11 +7613,19 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5540411981994171E-2</v>
       </c>
+      <c r="AC64">
+        <f t="shared" si="5"/>
+        <v>1.7775489958670895E-2</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="6"/>
+        <v>2.0010567935347619E-2</v>
+      </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>293</v>
       </c>
@@ -6935,6 +7692,10 @@
         <f t="shared" si="2"/>
         <v>3.413229426799249E-3</v>
       </c>
+      <c r="W65">
+        <f t="shared" si="3"/>
+        <v>3.413229426799249E-2</v>
+      </c>
       <c r="Y65">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>0</v>
@@ -6948,11 +7709,19 @@
         <v>2.9558802241544429E-2</v>
       </c>
       <c r="AB65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0827548224619984E-2</v>
       </c>
+      <c r="AC65">
+        <f t="shared" si="5"/>
+        <v>1.795428488821418E-2</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="6"/>
+        <v>1.5081021551808382E-2</v>
+      </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>296</v>
       </c>
@@ -7019,6 +7788,10 @@
         <f t="shared" si="2"/>
         <v>3.0575583491919659E-3</v>
       </c>
+      <c r="W66">
+        <f t="shared" si="3"/>
+        <v>3.0575583491919658E-2</v>
+      </c>
       <c r="Y66">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>1.980262729617973E-2</v>
@@ -7032,11 +7805,19 @@
         <v>4.8790164169432049E-2</v>
       </c>
       <c r="AB66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0410885006989385E-2</v>
       </c>
+      <c r="AC66">
+        <f t="shared" si="5"/>
+        <v>1.7600222318099878E-2</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="6"/>
+        <v>1.4789559629210367E-2</v>
+      </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>300</v>
       </c>
@@ -7103,6 +7884,10 @@
         <f t="shared" si="2"/>
         <v>3.609083481225025E-3</v>
       </c>
+      <c r="W67">
+        <f t="shared" si="3"/>
+        <v>3.6090834812250248E-2</v>
+      </c>
       <c r="Y67">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
         <v>2.9558802241544429E-2</v>
@@ -7116,11 +7901,19 @@
         <v>6.7658648473814864E-2</v>
       </c>
       <c r="AB67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0208743926043816E-2</v>
       </c>
+      <c r="AC67">
+        <f t="shared" si="5"/>
+        <v>1.9823720491662328E-2</v>
+      </c>
+      <c r="AD67">
+        <f t="shared" si="6"/>
+        <v>1.9438697057280834E-2</v>
+      </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -7172,11 +7965,11 @@
         <v>322035</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S72" si="4">_xlfn.T.INV.2T(Q68,R68)</f>
+        <f t="shared" ref="S68:S72" si="7">_xlfn.T.INV.2T(Q68,R68)</f>
         <v>5.5415731179516623</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T72" si="5">ABS(S68)</f>
+        <f t="shared" ref="T68:T72" si="8">ABS(S68)</f>
         <v>5.5415731179516623</v>
       </c>
       <c r="U68" t="str">
@@ -7184,8 +7977,12 @@
         <v>0.040</v>
       </c>
       <c r="V68">
-        <f t="shared" ref="V68:V72" si="6">U68/T68</f>
+        <f t="shared" ref="V68:V72" si="9">U68/T68</f>
         <v>7.21816696245005E-3</v>
+      </c>
+      <c r="W68">
+        <f t="shared" ref="W68:W72" si="10">V68*10</f>
+        <v>7.2181669624500497E-2</v>
       </c>
       <c r="Y68">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
@@ -7200,11 +7997,19 @@
         <v>0.13976194237515863</v>
       </c>
       <c r="AB68">
-        <f t="shared" ref="AB68:AB72" si="7">(Y68-Z68)/1.96</f>
+        <f t="shared" ref="AB68:AB72" si="11">(Y68-Z68)/1.96</f>
         <v>4.0036538490558826E-2</v>
       </c>
+      <c r="AC68">
+        <f t="shared" ref="AC68:AC72" si="12">(AA68-Z68)/2/1.96</f>
+        <v>4.0807308595070944E-2</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" ref="AD68:AD72" si="13">(AA68-Y68)/1.96</f>
+        <v>4.1578078699583063E-2</v>
+      </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>308</v>
       </c>
@@ -7256,11 +8061,11 @@
         <v>322035</v>
       </c>
       <c r="S69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.5196170398503144</v>
       </c>
       <c r="T69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.5196170398503144</v>
       </c>
       <c r="U69" t="str">
@@ -7268,8 +8073,12 @@
         <v>0.019</v>
       </c>
       <c r="V69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.4422677991651496E-3</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="10"/>
+        <v>3.4422677991651496E-2</v>
       </c>
       <c r="Y69">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
@@ -7284,11 +8093,19 @@
         <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.0410885006989385E-2</v>
       </c>
+      <c r="AC69">
+        <f t="shared" si="12"/>
+        <v>2.0018269245279413E-2</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" si="13"/>
+        <v>1.9625653483569438E-2</v>
+      </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>312</v>
       </c>
@@ -7340,11 +8157,11 @@
         <v>322035</v>
       </c>
       <c r="S70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.49545425854319</v>
       </c>
       <c r="T70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.49545425854319</v>
       </c>
       <c r="U70" t="str">
@@ -7352,8 +8169,12 @@
         <v>0.022</v>
       </c>
       <c r="V70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.0033087284456915E-3</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="10"/>
+        <v>4.0033087284456911E-2</v>
       </c>
       <c r="Y70">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
@@ -7368,11 +8189,19 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.1042325782678128E-2</v>
       </c>
+      <c r="AC70">
+        <f t="shared" si="12"/>
+        <v>2.3090308046130589E-2</v>
+      </c>
+      <c r="AD70">
+        <f t="shared" si="13"/>
+        <v>2.5138290309583051E-2</v>
+      </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>316</v>
       </c>
@@ -7424,11 +8253,11 @@
         <v>322035</v>
       </c>
       <c r="S71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.4823612021473993</v>
       </c>
       <c r="T71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.4823612021473993</v>
       </c>
       <c r="U71" t="str">
@@ -7436,8 +8265,12 @@
         <v>0.017</v>
       </c>
       <c r="V71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.1008536966410077E-3</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="10"/>
+        <v>3.1008536966410077E-2</v>
       </c>
       <c r="Y71">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
@@ -7452,11 +8285,19 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.0827548224619984E-2</v>
       </c>
+      <c r="AC71">
+        <f t="shared" si="12"/>
+        <v>2.0419058079983801E-2</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" si="13"/>
+        <v>2.0010567935347619E-2</v>
+      </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>319</v>
       </c>
@@ -7508,11 +8349,11 @@
         <v>322035</v>
       </c>
       <c r="S72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.4550317441294514</v>
       </c>
       <c r="T72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.4550317441294514</v>
       </c>
       <c r="U72" t="str">
@@ -7520,8 +8361,12 @@
         <v>0.019</v>
       </c>
       <c r="V72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.4830228110857933E-3</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="10"/>
+        <v>3.4830228110857932E-2</v>
       </c>
       <c r="Y72">
         <f>LN(Table004__Page_7_8[[#This Row],[OR^{b}]])</f>
@@ -7536,8 +8381,16 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.0827548224619984E-2</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="12"/>
+        <v>2.0419058079983801E-2</v>
+      </c>
+      <c r="AD72">
+        <f t="shared" si="13"/>
+        <v>2.0010567935347619E-2</v>
       </c>
     </row>
   </sheetData>

--- a/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/mokry_obesity_2016.xlsx
+++ b/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/mokry_obesity_2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f99f7067dc2a9a5/Documents/R/Working Directory/Data_Science_MSc/Dissertation_Bayes_MR/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{22C4E43D-6371-4515-9FCB-E71DF9F4DBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4F584BA-4AD1-4B06-BBDC-BB0F4958DBBE}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{22C4E43D-6371-4515-9FCB-E71DF9F4DBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A93F10F-09D3-4F31-BA50-4CB9BFD7CF3F}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{8A3BB852-7168-48D5-AFAC-CE153936FD9B}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{8A3BB852-7168-48D5-AFAC-CE153936FD9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Table004 (Page 7-8)" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="353">
   <si>
     <t>BMI-Associated</t>
   </si>
@@ -1056,13 +1056,67 @@
   </si>
   <si>
     <t>Upp_CI</t>
+  </si>
+  <si>
+    <t>SE_Lower_Only</t>
+  </si>
+  <si>
+    <t>SE_Both</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Study_Ref</t>
+  </si>
+  <si>
+    <t>Study_DOI</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Reported_Measure</t>
+  </si>
+  <si>
+    <t>Coeff_G_X</t>
+  </si>
+  <si>
+    <t>Coeff_G_X_SE</t>
+  </si>
+  <si>
+    <t>Coeff_G_Y</t>
+  </si>
+  <si>
+    <t>Coeff_G_Y_SE</t>
+  </si>
+  <si>
+    <t>Mokry et al</t>
+  </si>
+  <si>
+    <t>[@mokry_obesity_2016]</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pmed.1002053</t>
+  </si>
+  <si>
+    <t>Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>OR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,6 +1128,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1154,6 +1214,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1521,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ADCFF7-C1EB-4801-B550-02DC019036B8}">
-  <dimension ref="A1:AB72"/>
+  <dimension ref="A1:AD72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3:AB72"/>
+    <sheetView topLeftCell="T2" workbookViewId="0">
+      <selection activeCell="AC72" sqref="AC3:AC72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1545,7 +1609,7 @@
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1668,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1657,10 +1721,13 @@
         <v>334</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1743,8 +1810,16 @@
         <f>(Y3-Z3)/1.96</f>
         <v>1.5540411981994171E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC3">
+        <f>(AA3-Z3)/2/1.96</f>
+        <v>1.7775489958670895E-2</v>
+      </c>
+      <c r="AD3">
+        <f>(AA3-Y3)/1.96</f>
+        <v>2.0010567935347619E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1827,8 +1902,16 @@
         <f t="shared" ref="AB4:AB67" si="3">(Y4-Z4)/1.96</f>
         <v>2.0827548224619984E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC4">
+        <f t="shared" ref="AC4:AC67" si="4">(AA4-Z4)/2/1.96</f>
+        <v>2.0419058079983801E-2</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD67" si="5">(AA4-Y4)/1.96</f>
+        <v>2.0010567935347619E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1911,8 +1994,16 @@
         <f t="shared" si="3"/>
         <v>1.9816241487889776E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC5">
+        <f t="shared" si="4"/>
+        <v>2.1775471671213478E-2</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="5"/>
+        <v>2.3734701854537188E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2086,16 @@
         <f t="shared" si="3"/>
         <v>1.5231103647796521E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC6">
+        <f t="shared" si="4"/>
+        <v>1.5010331638503445E-2</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="5"/>
+        <v>1.4789559629210367E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2079,8 +2178,16 @@
         <f t="shared" si="3"/>
         <v>2.0827548224619984E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC7">
+        <f t="shared" si="4"/>
+        <v>2.286024456369572E-2</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="5"/>
+        <v>2.4892940902771454E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -2163,8 +2270,16 @@
         <f t="shared" si="3"/>
         <v>2.5138290309583051E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC8">
+        <f t="shared" si="4"/>
+        <v>2.219677984429333E-2</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="5"/>
+        <v>1.9255269379003605E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -2247,8 +2362,16 @@
         <f t="shared" si="3"/>
         <v>2.0208743926043816E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC9">
+        <f t="shared" si="4"/>
+        <v>2.219677984429333E-2</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="5"/>
+        <v>2.418481576254284E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -2331,8 +2454,16 @@
         <f t="shared" si="3"/>
         <v>1.5699825850384548E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC10">
+        <f t="shared" si="4"/>
+        <v>1.795428488821418E-2</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="5"/>
+        <v>2.0208743926043816E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -2415,8 +2546,16 @@
         <f t="shared" si="3"/>
         <v>2.0410885006989385E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC11">
+        <f t="shared" si="4"/>
+        <v>2.0018269245279413E-2</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="5"/>
+        <v>1.9625653483569438E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -2499,8 +2638,16 @@
         <f t="shared" si="3"/>
         <v>1.9625653483569438E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC12">
+        <f t="shared" si="4"/>
+        <v>1.6932415547161402E-2</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="5"/>
+        <v>1.4239177610753362E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -2583,8 +2730,16 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC13">
+        <f t="shared" si="4"/>
+        <v>1.7775489958670895E-2</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="5"/>
+        <v>1.4933868520465937E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -2667,8 +2822,16 @@
         <f t="shared" si="3"/>
         <v>2.5643793255555259E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC14">
+        <f t="shared" si="4"/>
+        <v>2.7403124648172694E-2</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="5"/>
+        <v>2.9162456040790135E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -2751,8 +2914,16 @@
         <f t="shared" si="3"/>
         <v>2.9729034757130523E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC15">
+        <f t="shared" si="4"/>
+        <v>2.8910378904847774E-2</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="5"/>
+        <v>2.8091723052565024E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -2835,8 +3006,16 @@
         <f t="shared" si="3"/>
         <v>2.4892940902771454E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC16">
+        <f t="shared" si="4"/>
+        <v>2.1984106183941941E-2</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="5"/>
+        <v>1.9075271465112429E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -2919,8 +3098,16 @@
         <f t="shared" si="3"/>
         <v>2.1042325782678128E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>2.0625534854360972E-2</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="5"/>
+        <v>2.0208743926043816E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -3003,8 +3190,16 @@
         <f t="shared" si="3"/>
         <v>1.6028671547642325E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC18">
+        <f t="shared" si="4"/>
+        <v>1.832289147225909E-2</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="5"/>
+        <v>2.0617111396875849E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -3087,8 +3282,16 @@
         <f t="shared" si="3"/>
         <v>2.0410885006989385E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC19">
+        <f t="shared" si="4"/>
+        <v>1.7600222318099878E-2</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="5"/>
+        <v>1.4789559629210367E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -3171,8 +3374,16 @@
         <f t="shared" si="3"/>
         <v>1.5699825850384548E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC20">
+        <f t="shared" si="4"/>
+        <v>1.795428488821418E-2</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="5"/>
+        <v>2.0208743926043816E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -3255,8 +3466,16 @@
         <f t="shared" si="3"/>
         <v>1.6028671547642325E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC21">
+        <f t="shared" si="4"/>
+        <v>1.832289147225909E-2</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="5"/>
+        <v>2.0617111396875849E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -3339,8 +3558,16 @@
         <f t="shared" si="3"/>
         <v>1.5231103647796521E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC22">
+        <f t="shared" si="4"/>
+        <v>1.7428378565682977E-2</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="5"/>
+        <v>1.9625653483569438E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -3423,8 +3650,16 @@
         <f t="shared" si="3"/>
         <v>2.1042325782678128E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC23">
+        <f t="shared" si="4"/>
+        <v>2.3090308046130589E-2</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="5"/>
+        <v>2.5138290309583051E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -3507,8 +3742,16 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC24">
+        <f t="shared" si="4"/>
+        <v>2.021667644238281E-2</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="5"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>154</v>
       </c>
@@ -3591,8 +3834,16 @@
         <f t="shared" si="3"/>
         <v>2.5904247639501662E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC25">
+        <f t="shared" si="4"/>
+        <v>2.5278291490875252E-2</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="5"/>
+        <v>2.4652335342248845E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>157</v>
       </c>
@@ -3675,8 +3926,16 @@
         <f t="shared" si="3"/>
         <v>2.1042325782678128E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC26">
+        <f t="shared" si="4"/>
+        <v>2.0625534854360972E-2</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="5"/>
+        <v>2.0208743926043816E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -3759,8 +4018,16 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC27">
+        <f t="shared" si="4"/>
+        <v>2.021667644238281E-2</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="5"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>166</v>
       </c>
@@ -3843,8 +4110,16 @@
         <f t="shared" si="3"/>
         <v>1.586254442348526E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC28">
+        <f t="shared" si="4"/>
+        <v>1.8136714715237322E-2</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="5"/>
+        <v>2.0410885006989385E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>171</v>
       </c>
@@ -3927,8 +4202,16 @@
         <f t="shared" si="3"/>
         <v>2.0827548224619984E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC29">
+        <f t="shared" si="4"/>
+        <v>1.795428488821418E-2</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="5"/>
+        <v>1.5081021551808382E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>176</v>
       </c>
@@ -4011,8 +4294,16 @@
         <f t="shared" si="3"/>
         <v>2.1042325782678128E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC30">
+        <f t="shared" si="4"/>
+        <v>2.0625534854360972E-2</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="5"/>
+        <v>2.0208743926043816E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -4095,8 +4386,16 @@
         <f t="shared" si="3"/>
         <v>2.0208743926043816E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC31">
+        <f t="shared" si="4"/>
+        <v>1.9823720491662328E-2</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="5"/>
+        <v>1.9438697057280834E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>185</v>
       </c>
@@ -4179,8 +4478,16 @@
         <f t="shared" si="3"/>
         <v>2.1042325782678128E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC32">
+        <f t="shared" si="4"/>
+        <v>2.0625534854360972E-2</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="5"/>
+        <v>2.0208743926043816E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>190</v>
       </c>
@@ -4263,8 +4570,16 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC33">
+        <f t="shared" si="4"/>
+        <v>2.2634723369562348E-2</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="5"/>
+        <v>2.4652335342248845E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>193</v>
       </c>
@@ -4347,8 +4662,16 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC34">
+        <f t="shared" si="4"/>
+        <v>1.7775489958670895E-2</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="5"/>
+        <v>1.4933868520465937E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>196</v>
       </c>
@@ -4431,8 +4754,16 @@
         <f t="shared" si="3"/>
         <v>2.0410885006989385E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC35">
+        <f t="shared" si="4"/>
+        <v>2.2413611171258761E-2</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="5"/>
+        <v>2.4416337335528129E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>199</v>
       </c>
@@ -4515,8 +4846,16 @@
         <f t="shared" si="3"/>
         <v>2.1261579796208196E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC36">
+        <f t="shared" si="4"/>
+        <v>2.0836232401598792E-2</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="5"/>
+        <v>2.0410885006989385E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>203</v>
       </c>
@@ -4599,8 +4938,16 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC37">
+        <f t="shared" si="4"/>
+        <v>2.021667644238281E-2</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="5"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>207</v>
       </c>
@@ -4683,8 +5030,16 @@
         <f t="shared" si="3"/>
         <v>2.0208743926043816E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC38">
+        <f t="shared" si="4"/>
+        <v>1.9823720491662328E-2</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="5"/>
+        <v>1.9438697057280834E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -4767,8 +5122,16 @@
         <f t="shared" si="3"/>
         <v>1.5384203148309978E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC39">
+        <f t="shared" si="4"/>
+        <v>1.7600222318099878E-2</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="5"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>215</v>
       </c>
@@ -4851,8 +5214,16 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC40">
+        <f t="shared" si="4"/>
+        <v>2.2634723369562348E-2</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="5"/>
+        <v>2.4652335342248845E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>218</v>
       </c>
@@ -4935,8 +5306,16 @@
         <f t="shared" si="3"/>
         <v>3.6273429430474645E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC41">
+        <f t="shared" si="4"/>
+        <v>3.5069130262398725E-2</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="5"/>
+        <v>3.3864831094322805E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>222</v>
       </c>
@@ -5019,8 +5398,16 @@
         <f t="shared" si="3"/>
         <v>1.5540411981994171E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC42">
+        <f t="shared" si="4"/>
+        <v>1.7775489958670895E-2</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="5"/>
+        <v>2.0010567935347619E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>226</v>
       </c>
@@ -5103,8 +5490,16 @@
         <f t="shared" si="3"/>
         <v>2.0208743926043816E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC43">
+        <f t="shared" si="4"/>
+        <v>1.9823720491662328E-2</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="5"/>
+        <v>1.9438697057280834E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>228</v>
       </c>
@@ -5187,8 +5582,16 @@
         <f t="shared" si="3"/>
         <v>1.5231103647796521E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC44">
+        <f t="shared" si="4"/>
+        <v>1.7428378565682977E-2</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="5"/>
+        <v>1.9625653483569438E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>232</v>
       </c>
@@ -5271,8 +5674,16 @@
         <f t="shared" si="3"/>
         <v>2.0410885006989385E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC45">
+        <f t="shared" si="4"/>
+        <v>1.7600222318099878E-2</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="5"/>
+        <v>1.4789559629210367E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>235</v>
       </c>
@@ -5355,8 +5766,16 @@
         <f t="shared" si="3"/>
         <v>1.5231103647796521E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC46">
+        <f t="shared" si="4"/>
+        <v>1.7428378565682977E-2</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="5"/>
+        <v>1.9625653483569438E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>237</v>
       </c>
@@ -5439,8 +5858,16 @@
         <f t="shared" si="3"/>
         <v>1.5384203148309978E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC47">
+        <f t="shared" si="4"/>
+        <v>1.7600222318099878E-2</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="5"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>240</v>
       </c>
@@ -5523,8 +5950,16 @@
         <f t="shared" si="3"/>
         <v>2.0208743926043816E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC48">
+        <f t="shared" si="4"/>
+        <v>1.9823720491662328E-2</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="5"/>
+        <v>1.9438697057280834E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>243</v>
       </c>
@@ -5607,8 +6042,16 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC49">
+        <f t="shared" si="4"/>
+        <v>2.021667644238281E-2</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="5"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>246</v>
       </c>
@@ -5691,8 +6134,16 @@
         <f t="shared" si="3"/>
         <v>2.0827548224619984E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC50">
+        <f t="shared" si="4"/>
+        <v>2.0419058079983801E-2</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="5"/>
+        <v>2.0010567935347619E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>248</v>
       </c>
@@ -5775,8 +6226,16 @@
         <f t="shared" si="3"/>
         <v>3.1246747571795241E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC51">
+        <f t="shared" si="4"/>
+        <v>3.0344883383001391E-2</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="5"/>
+        <v>2.9443019194207536E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>252</v>
       </c>
@@ -5859,8 +6318,16 @@
         <f t="shared" si="3"/>
         <v>1.6028671547642325E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC52">
+        <f t="shared" si="4"/>
+        <v>1.5784541764818246E-2</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="5"/>
+        <v>1.5540411981994171E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -5943,8 +6410,16 @@
         <f t="shared" si="3"/>
         <v>2.0010567935347619E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC53">
+        <f t="shared" si="4"/>
+        <v>2.1984106183941941E-2</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="5"/>
+        <v>2.3957644432536267E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>259</v>
       </c>
@@ -6027,8 +6502,16 @@
         <f t="shared" si="3"/>
         <v>2.6718359957814238E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC54">
+        <f t="shared" si="4"/>
+        <v>2.851821581329508E-2</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="5"/>
+        <v>3.0318071668775915E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>262</v>
       </c>
@@ -6111,8 +6594,16 @@
         <f t="shared" si="3"/>
         <v>1.5540411981994171E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC55">
+        <f t="shared" si="4"/>
+        <v>1.7775489958670895E-2</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="5"/>
+        <v>2.0010567935347619E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>265</v>
       </c>
@@ -6195,8 +6686,16 @@
         <f t="shared" si="3"/>
         <v>2.538852528523668E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC56">
+        <f t="shared" si="4"/>
+        <v>2.4786670523889762E-2</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="5"/>
+        <v>2.418481576254284E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>268</v>
       </c>
@@ -6279,8 +6778,16 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC57">
+        <f t="shared" si="4"/>
+        <v>2.021667644238281E-2</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="5"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>270</v>
       </c>
@@ -6363,8 +6870,16 @@
         <f t="shared" si="3"/>
         <v>1.5384203148309978E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC58">
+        <f t="shared" si="4"/>
+        <v>1.7600222318099878E-2</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="5"/>
+        <v>1.9816241487889776E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>273</v>
       </c>
@@ -6447,8 +6962,16 @@
         <f t="shared" si="3"/>
         <v>2.1485451709248368E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC59">
+        <f t="shared" si="4"/>
+        <v>2.1051281553062108E-2</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="5"/>
+        <v>2.0617111396875849E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>276</v>
       </c>
@@ -6531,8 +7054,16 @@
         <f t="shared" si="3"/>
         <v>1.5540411981994171E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC60">
+        <f t="shared" si="4"/>
+        <v>1.7775489958670895E-2</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="5"/>
+        <v>2.0010567935347619E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>279</v>
       </c>
@@ -6615,8 +7146,16 @@
         <f t="shared" si="3"/>
         <v>1.5231103647796521E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC61">
+        <f t="shared" si="4"/>
+        <v>1.7428378565682977E-2</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="5"/>
+        <v>1.9625653483569438E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>282</v>
       </c>
@@ -6699,8 +7238,16 @@
         <f t="shared" si="3"/>
         <v>3.0020663277006889E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC62">
+        <f t="shared" si="4"/>
+        <v>2.9186314075955181E-2</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="5"/>
+        <v>2.8351964874903473E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>287</v>
       </c>
@@ -6783,8 +7330,16 @@
         <f t="shared" si="3"/>
         <v>3.0930929498181069E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC63">
+        <f t="shared" si="4"/>
+        <v>3.0046692769485604E-2</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="5"/>
+        <v>2.9162456040790135E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>291</v>
       </c>
@@ -6867,8 +7422,16 @@
         <f t="shared" si="3"/>
         <v>1.5540411981994171E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC64">
+        <f t="shared" si="4"/>
+        <v>1.7775489958670895E-2</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="5"/>
+        <v>2.0010567935347619E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>293</v>
       </c>
@@ -6951,8 +7514,16 @@
         <f t="shared" si="3"/>
         <v>2.0827548224619984E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC65">
+        <f t="shared" si="4"/>
+        <v>1.795428488821418E-2</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="5"/>
+        <v>1.5081021551808382E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>296</v>
       </c>
@@ -7035,8 +7606,16 @@
         <f t="shared" si="3"/>
         <v>2.0410885006989385E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC66">
+        <f t="shared" si="4"/>
+        <v>1.7600222318099878E-2</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="5"/>
+        <v>1.4789559629210367E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>300</v>
       </c>
@@ -7119,8 +7698,16 @@
         <f t="shared" si="3"/>
         <v>2.0208743926043816E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC67">
+        <f t="shared" si="4"/>
+        <v>1.9823720491662328E-2</v>
+      </c>
+      <c r="AD67">
+        <f t="shared" si="5"/>
+        <v>1.9438697057280834E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -7172,11 +7759,11 @@
         <v>322035</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S72" si="4">_xlfn.T.INV.2T(Q68,R68)</f>
+        <f t="shared" ref="S68:S72" si="6">_xlfn.T.INV.2T(Q68,R68)</f>
         <v>5.5415731179516623</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T72" si="5">ABS(S68)</f>
+        <f t="shared" ref="T68:T72" si="7">ABS(S68)</f>
         <v>5.5415731179516623</v>
       </c>
       <c r="U68" t="str">
@@ -7184,7 +7771,7 @@
         <v>0.040</v>
       </c>
       <c r="V68">
-        <f t="shared" ref="V68:V72" si="6">U68/T68</f>
+        <f t="shared" ref="V68:V72" si="8">U68/T68</f>
         <v>7.21816696245005E-3</v>
       </c>
       <c r="Y68">
@@ -7200,11 +7787,19 @@
         <v>0.13976194237515863</v>
       </c>
       <c r="AB68">
-        <f t="shared" ref="AB68:AB72" si="7">(Y68-Z68)/1.96</f>
+        <f t="shared" ref="AB68:AB72" si="9">(Y68-Z68)/1.96</f>
         <v>4.0036538490558826E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC68">
+        <f t="shared" ref="AC68:AC72" si="10">(AA68-Z68)/2/1.96</f>
+        <v>4.0807308595070944E-2</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" ref="AD68:AD72" si="11">(AA68-Y68)/1.96</f>
+        <v>4.1578078699583063E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>308</v>
       </c>
@@ -7256,11 +7851,11 @@
         <v>322035</v>
       </c>
       <c r="S69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.5196170398503144</v>
       </c>
       <c r="T69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.5196170398503144</v>
       </c>
       <c r="U69" t="str">
@@ -7268,7 +7863,7 @@
         <v>0.019</v>
       </c>
       <c r="V69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4422677991651496E-3</v>
       </c>
       <c r="Y69">
@@ -7284,11 +7879,19 @@
         <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0410885006989385E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC69">
+        <f t="shared" si="10"/>
+        <v>2.0018269245279413E-2</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" si="11"/>
+        <v>1.9625653483569438E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>312</v>
       </c>
@@ -7340,11 +7943,11 @@
         <v>322035</v>
       </c>
       <c r="S70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.49545425854319</v>
       </c>
       <c r="T70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.49545425854319</v>
       </c>
       <c r="U70" t="str">
@@ -7352,7 +7955,7 @@
         <v>0.022</v>
       </c>
       <c r="V70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.0033087284456915E-3</v>
       </c>
       <c r="Y70">
@@ -7368,11 +7971,19 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.1042325782678128E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC70">
+        <f t="shared" si="10"/>
+        <v>2.3090308046130589E-2</v>
+      </c>
+      <c r="AD70">
+        <f t="shared" si="11"/>
+        <v>2.5138290309583051E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>316</v>
       </c>
@@ -7424,11 +8035,11 @@
         <v>322035</v>
       </c>
       <c r="S71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4823612021473993</v>
       </c>
       <c r="T71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4823612021473993</v>
       </c>
       <c r="U71" t="str">
@@ -7436,7 +8047,7 @@
         <v>0.017</v>
       </c>
       <c r="V71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1008536966410077E-3</v>
       </c>
       <c r="Y71">
@@ -7452,11 +8063,19 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0827548224619984E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC71">
+        <f t="shared" si="10"/>
+        <v>2.0419058079983801E-2</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" si="11"/>
+        <v>2.0010567935347619E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>319</v>
       </c>
@@ -7508,11 +8127,11 @@
         <v>322035</v>
       </c>
       <c r="S72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4550317441294514</v>
       </c>
       <c r="T72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4550317441294514</v>
       </c>
       <c r="U72" t="str">
@@ -7520,7 +8139,7 @@
         <v>0.019</v>
       </c>
       <c r="V72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4830228110857933E-3</v>
       </c>
       <c r="Y72">
@@ -7536,8 +8155,16 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0827548224619984E-2</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="10"/>
+        <v>2.0419058079983801E-2</v>
+      </c>
+      <c r="AD72">
+        <f t="shared" si="11"/>
+        <v>2.0010567935347619E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7550,12 +8177,2501 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE890338-A9EB-449D-8D4F-895A2109274B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>1.7106513699587575E-3</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1.7775489958670895E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <v>3.649024665057384E-3</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2.0419058079983801E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4">
+        <v>4.0064745893953089E-3</v>
+      </c>
+      <c r="J4">
+        <v>4.8790164169432049E-2</v>
+      </c>
+      <c r="K4">
+        <v>2.1775471671213478E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>352</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5">
+        <v>3.0940714867255959E-3</v>
+      </c>
+      <c r="J5">
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.5010331638503445E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6">
+        <v>3.8703756544317736E-3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2.286024456369572E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7">
+        <v>4.017638968914862E-3</v>
+      </c>
+      <c r="J7">
+        <v>3.9220713153281329E-2</v>
+      </c>
+      <c r="K7">
+        <v>2.219677984429333E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8">
+        <v>3.7386530646937952E-3</v>
+      </c>
+      <c r="J8">
+        <v>2.9558802241544429E-2</v>
+      </c>
+      <c r="K8">
+        <v>2.219677984429333E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>352</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9">
+        <v>3.1102284521522887E-3</v>
+      </c>
+      <c r="J9">
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.795428488821418E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>352</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10">
+        <v>3.1802854664185814E-3</v>
+      </c>
+      <c r="J10">
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.0018269245279413E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>352</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11">
+        <v>3.0830327170072495E-3</v>
+      </c>
+      <c r="J11">
+        <v>5.8268908123975824E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.6932415547161402E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>352</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12">
+        <v>3.1217885107430307E-3</v>
+      </c>
+      <c r="J12">
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="K12">
+        <v>1.7775489958670895E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>352</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13">
+        <v>4.6164610650375592E-3</v>
+      </c>
+      <c r="J13">
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="K13">
+        <v>2.7403124648172694E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" t="s">
+        <v>350</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>352</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14">
+        <v>4.5505201226154141E-3</v>
+      </c>
+      <c r="J14">
+        <v>5.8268908123975824E-2</v>
+      </c>
+      <c r="K14">
+        <v>2.8910378904847774E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" t="s">
+        <v>352</v>
+      </c>
+      <c r="H15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15">
+        <v>4.1554174164966174E-3</v>
+      </c>
+      <c r="J15">
+        <v>4.8790164169432049E-2</v>
+      </c>
+      <c r="K15">
+        <v>2.1984106183941941E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>351</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" t="s">
+        <v>352</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16">
+        <v>3.6469588572924081E-3</v>
+      </c>
+      <c r="J16">
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="K16">
+        <v>2.0625534854360972E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" t="s">
+        <v>352</v>
+      </c>
+      <c r="H17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17">
+        <v>3.1016834013285568E-3</v>
+      </c>
+      <c r="J17">
+        <v>-3.0459207484708574E-2</v>
+      </c>
+      <c r="K17">
+        <v>1.832289147225909E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>348</v>
+      </c>
+      <c r="B18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" t="s">
+        <v>352</v>
+      </c>
+      <c r="H18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18">
+        <v>3.1093712759504904E-3</v>
+      </c>
+      <c r="J18">
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="K18">
+        <v>1.7600222318099878E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>348</v>
+      </c>
+      <c r="B19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>351</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" t="s">
+        <v>352</v>
+      </c>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19">
+        <v>3.0459209921138621E-3</v>
+      </c>
+      <c r="J19">
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="K19">
+        <v>1.795428488821418E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>351</v>
+      </c>
+      <c r="F20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" t="s">
+        <v>352</v>
+      </c>
+      <c r="H20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I20">
+        <v>3.5748833303499571E-3</v>
+      </c>
+      <c r="J20">
+        <v>-3.0459207484708574E-2</v>
+      </c>
+      <c r="K20">
+        <v>1.832289147225909E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C21" t="s">
+        <v>350</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>351</v>
+      </c>
+      <c r="F21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" t="s">
+        <v>352</v>
+      </c>
+      <c r="H21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21">
+        <v>3.1102577503204702E-3</v>
+      </c>
+      <c r="J21">
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="K21">
+        <v>1.7428378565682977E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" t="s">
+        <v>352</v>
+      </c>
+      <c r="H22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22">
+        <v>3.9103977687082164E-3</v>
+      </c>
+      <c r="J22">
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="K22">
+        <v>2.3090308046130589E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>351</v>
+      </c>
+      <c r="F23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H23" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23">
+        <v>3.3351457186432043E-3</v>
+      </c>
+      <c r="J23">
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="K23">
+        <v>2.021667644238281E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" t="s">
+        <v>350</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" t="s">
+        <v>352</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24">
+        <v>4.6363533717789568E-3</v>
+      </c>
+      <c r="J24">
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="K24">
+        <v>2.5278291490875252E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" t="s">
+        <v>350</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" t="s">
+        <v>352</v>
+      </c>
+      <c r="H25" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25">
+        <v>3.1009539353891694E-3</v>
+      </c>
+      <c r="J25">
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="K25">
+        <v>2.0625534854360972E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" t="s">
+        <v>352</v>
+      </c>
+      <c r="H26" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26">
+        <v>3.1303571212109218E-3</v>
+      </c>
+      <c r="J26">
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="K26">
+        <v>2.021667644238281E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>348</v>
+      </c>
+      <c r="B27" t="s">
+        <v>349</v>
+      </c>
+      <c r="C27" t="s">
+        <v>350</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>351</v>
+      </c>
+      <c r="F27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" t="s">
+        <v>352</v>
+      </c>
+      <c r="H27" t="s">
+        <v>169</v>
+      </c>
+      <c r="I27">
+        <v>3.3858286475286349E-3</v>
+      </c>
+      <c r="J27">
+        <v>-2.0202707317519466E-2</v>
+      </c>
+      <c r="K27">
+        <v>1.8136714715237322E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>348</v>
+      </c>
+      <c r="B28" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" t="s">
+        <v>350</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>351</v>
+      </c>
+      <c r="F28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" t="s">
+        <v>352</v>
+      </c>
+      <c r="H28" t="s">
+        <v>169</v>
+      </c>
+      <c r="I28">
+        <v>3.3858286475286349E-3</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1.795428488821418E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>348</v>
+      </c>
+      <c r="B29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C29" t="s">
+        <v>350</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" t="s">
+        <v>352</v>
+      </c>
+      <c r="H29" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29">
+        <v>3.2840062847118239E-3</v>
+      </c>
+      <c r="J29">
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="K29">
+        <v>2.0625534854360972E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>348</v>
+      </c>
+      <c r="B30" t="s">
+        <v>349</v>
+      </c>
+      <c r="C30" t="s">
+        <v>350</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>351</v>
+      </c>
+      <c r="F30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" t="s">
+        <v>352</v>
+      </c>
+      <c r="H30" t="s">
+        <v>169</v>
+      </c>
+      <c r="I30">
+        <v>3.4401141223554918E-3</v>
+      </c>
+      <c r="J30">
+        <v>2.9558802241544429E-2</v>
+      </c>
+      <c r="K30">
+        <v>1.9823720491662328E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>348</v>
+      </c>
+      <c r="B31" t="s">
+        <v>349</v>
+      </c>
+      <c r="C31" t="s">
+        <v>350</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>351</v>
+      </c>
+      <c r="F31" t="s">
+        <v>185</v>
+      </c>
+      <c r="G31" t="s">
+        <v>352</v>
+      </c>
+      <c r="H31" t="s">
+        <v>188</v>
+      </c>
+      <c r="I31">
+        <v>3.1570426012529937E-3</v>
+      </c>
+      <c r="J31">
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="K31">
+        <v>2.0625534854360972E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B32" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" t="s">
+        <v>350</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>351</v>
+      </c>
+      <c r="F32" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" t="s">
+        <v>352</v>
+      </c>
+      <c r="H32" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32">
+        <v>3.8188506389133458E-3</v>
+      </c>
+      <c r="J32">
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="K32">
+        <v>2.2634723369562348E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>348</v>
+      </c>
+      <c r="B33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C33" t="s">
+        <v>350</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>351</v>
+      </c>
+      <c r="F33" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" t="s">
+        <v>352</v>
+      </c>
+      <c r="H33" t="s">
+        <v>188</v>
+      </c>
+      <c r="I33">
+        <v>3.2611000381207386E-3</v>
+      </c>
+      <c r="J33">
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="K33">
+        <v>1.7775489958670895E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>348</v>
+      </c>
+      <c r="B34" t="s">
+        <v>349</v>
+      </c>
+      <c r="C34" t="s">
+        <v>350</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>351</v>
+      </c>
+      <c r="F34" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" t="s">
+        <v>352</v>
+      </c>
+      <c r="H34" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34">
+        <v>3.4163905161264875E-3</v>
+      </c>
+      <c r="J34">
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="K34">
+        <v>2.2413611171258761E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>348</v>
+      </c>
+      <c r="B35" t="s">
+        <v>349</v>
+      </c>
+      <c r="C35" t="s">
+        <v>350</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>351</v>
+      </c>
+      <c r="F35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" t="s">
+        <v>352</v>
+      </c>
+      <c r="H35" t="s">
+        <v>201</v>
+      </c>
+      <c r="I35">
+        <v>3.1270864211269097E-3</v>
+      </c>
+      <c r="J35">
+        <v>-2.0202707317519466E-2</v>
+      </c>
+      <c r="K35">
+        <v>2.0836232401598792E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>348</v>
+      </c>
+      <c r="B36" t="s">
+        <v>349</v>
+      </c>
+      <c r="C36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>351</v>
+      </c>
+      <c r="F36" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" t="s">
+        <v>352</v>
+      </c>
+      <c r="H36" t="s">
+        <v>160</v>
+      </c>
+      <c r="I36">
+        <v>3.4495150546990511E-3</v>
+      </c>
+      <c r="J36">
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="K36">
+        <v>2.021667644238281E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>348</v>
+      </c>
+      <c r="B37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>351</v>
+      </c>
+      <c r="F37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" t="s">
+        <v>352</v>
+      </c>
+      <c r="H37" t="s">
+        <v>201</v>
+      </c>
+      <c r="I37">
+        <v>3.1359227769991375E-3</v>
+      </c>
+      <c r="J37">
+        <v>2.9558802241544429E-2</v>
+      </c>
+      <c r="K37">
+        <v>1.9823720491662328E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>348</v>
+      </c>
+      <c r="B38" t="s">
+        <v>349</v>
+      </c>
+      <c r="C38" t="s">
+        <v>350</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>351</v>
+      </c>
+      <c r="F38" t="s">
+        <v>211</v>
+      </c>
+      <c r="G38" t="s">
+        <v>352</v>
+      </c>
+      <c r="H38" t="s">
+        <v>188</v>
+      </c>
+      <c r="I38">
+        <v>3.2970040060210383E-3</v>
+      </c>
+      <c r="J38">
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="K38">
+        <v>1.7600222318099878E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>348</v>
+      </c>
+      <c r="B39" t="s">
+        <v>349</v>
+      </c>
+      <c r="C39" t="s">
+        <v>350</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>351</v>
+      </c>
+      <c r="F39" t="s">
+        <v>215</v>
+      </c>
+      <c r="G39" t="s">
+        <v>352</v>
+      </c>
+      <c r="H39" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39">
+        <v>4.731827345175914E-3</v>
+      </c>
+      <c r="J39">
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="K39">
+        <v>2.2634723369562348E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>348</v>
+      </c>
+      <c r="B40" t="s">
+        <v>349</v>
+      </c>
+      <c r="C40" t="s">
+        <v>350</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>351</v>
+      </c>
+      <c r="F40" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" t="s">
+        <v>352</v>
+      </c>
+      <c r="H40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40">
+        <v>7.6547101529929129E-3</v>
+      </c>
+      <c r="J40">
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="K40">
+        <v>3.5069130262398725E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>348</v>
+      </c>
+      <c r="B41" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" t="s">
+        <v>350</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>351</v>
+      </c>
+      <c r="F41" t="s">
+        <v>222</v>
+      </c>
+      <c r="G41" t="s">
+        <v>352</v>
+      </c>
+      <c r="H41" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41">
+        <v>3.2347153051164972E-3</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1.7775489958670895E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>348</v>
+      </c>
+      <c r="B42" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" t="s">
+        <v>350</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>351</v>
+      </c>
+      <c r="F42" t="s">
+        <v>226</v>
+      </c>
+      <c r="G42" t="s">
+        <v>352</v>
+      </c>
+      <c r="H42" t="s">
+        <v>169</v>
+      </c>
+      <c r="I42">
+        <v>3.7365871844980301E-3</v>
+      </c>
+      <c r="J42">
+        <v>2.9558802241544429E-2</v>
+      </c>
+      <c r="K42">
+        <v>1.9823720491662328E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>348</v>
+      </c>
+      <c r="B43" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>351</v>
+      </c>
+      <c r="F43" t="s">
+        <v>228</v>
+      </c>
+      <c r="G43" t="s">
+        <v>352</v>
+      </c>
+      <c r="H43" t="s">
+        <v>230</v>
+      </c>
+      <c r="I43">
+        <v>3.0908838625917667E-3</v>
+      </c>
+      <c r="J43">
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="K43">
+        <v>1.7428378565682977E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>348</v>
+      </c>
+      <c r="B44" t="s">
+        <v>349</v>
+      </c>
+      <c r="C44" t="s">
+        <v>350</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>351</v>
+      </c>
+      <c r="F44" t="s">
+        <v>232</v>
+      </c>
+      <c r="G44" t="s">
+        <v>352</v>
+      </c>
+      <c r="H44" t="s">
+        <v>230</v>
+      </c>
+      <c r="I44">
+        <v>3.0928807413129855E-3</v>
+      </c>
+      <c r="J44">
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="K44">
+        <v>1.7600222318099878E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>348</v>
+      </c>
+      <c r="B45" t="s">
+        <v>349</v>
+      </c>
+      <c r="C45" t="s">
+        <v>350</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>351</v>
+      </c>
+      <c r="F45" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" t="s">
+        <v>352</v>
+      </c>
+      <c r="H45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I45">
+        <v>3.4610202407590472E-3</v>
+      </c>
+      <c r="J45">
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="K45">
+        <v>1.7428378565682977E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>348</v>
+      </c>
+      <c r="B46" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" t="s">
+        <v>350</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>351</v>
+      </c>
+      <c r="F46" t="s">
+        <v>237</v>
+      </c>
+      <c r="G46" t="s">
+        <v>352</v>
+      </c>
+      <c r="H46" t="s">
+        <v>188</v>
+      </c>
+      <c r="I46">
+        <v>3.4963252656081026E-3</v>
+      </c>
+      <c r="J46">
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="K46">
+        <v>1.7600222318099878E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>348</v>
+      </c>
+      <c r="B47" t="s">
+        <v>349</v>
+      </c>
+      <c r="C47" t="s">
+        <v>350</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>351</v>
+      </c>
+      <c r="F47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G47" t="s">
+        <v>352</v>
+      </c>
+      <c r="H47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I47">
+        <v>3.187050371155891E-3</v>
+      </c>
+      <c r="J47">
+        <v>2.9558802241544429E-2</v>
+      </c>
+      <c r="K47">
+        <v>1.9823720491662328E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>348</v>
+      </c>
+      <c r="B48" t="s">
+        <v>349</v>
+      </c>
+      <c r="C48" t="s">
+        <v>350</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>351</v>
+      </c>
+      <c r="F48" t="s">
+        <v>243</v>
+      </c>
+      <c r="G48" t="s">
+        <v>352</v>
+      </c>
+      <c r="H48" t="s">
+        <v>245</v>
+      </c>
+      <c r="I48">
+        <v>3.0193108779371599E-3</v>
+      </c>
+      <c r="J48">
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="K48">
+        <v>2.021667644238281E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>348</v>
+      </c>
+      <c r="B49" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" t="s">
+        <v>350</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>351</v>
+      </c>
+      <c r="F49" t="s">
+        <v>246</v>
+      </c>
+      <c r="G49" t="s">
+        <v>352</v>
+      </c>
+      <c r="H49" t="s">
+        <v>245</v>
+      </c>
+      <c r="I49">
+        <v>3.071047346779402E-3</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>2.0419058079983801E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>348</v>
+      </c>
+      <c r="B50" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" t="s">
+        <v>350</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>351</v>
+      </c>
+      <c r="F50" t="s">
+        <v>248</v>
+      </c>
+      <c r="G50" t="s">
+        <v>352</v>
+      </c>
+      <c r="H50" t="s">
+        <v>139</v>
+      </c>
+      <c r="I50">
+        <v>4.8409172195352148E-3</v>
+      </c>
+      <c r="J50">
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="K50">
+        <v>3.0344883383001391E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>348</v>
+      </c>
+      <c r="B51" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" t="s">
+        <v>350</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>351</v>
+      </c>
+      <c r="F51" t="s">
+        <v>252</v>
+      </c>
+      <c r="G51" t="s">
+        <v>352</v>
+      </c>
+      <c r="H51" t="s">
+        <v>245</v>
+      </c>
+      <c r="I51">
+        <v>3.1132498103861412E-3</v>
+      </c>
+      <c r="J51">
+        <v>-3.0459207484708574E-2</v>
+      </c>
+      <c r="K51">
+        <v>1.5784541764818246E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>348</v>
+      </c>
+      <c r="B52" t="s">
+        <v>349</v>
+      </c>
+      <c r="C52" t="s">
+        <v>350</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>351</v>
+      </c>
+      <c r="F52" t="s">
+        <v>255</v>
+      </c>
+      <c r="G52" t="s">
+        <v>352</v>
+      </c>
+      <c r="H52" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52">
+        <v>5.3679176144036979E-3</v>
+      </c>
+      <c r="J52">
+        <v>3.9220713153281329E-2</v>
+      </c>
+      <c r="K52">
+        <v>2.1984106183941941E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>348</v>
+      </c>
+      <c r="B53" t="s">
+        <v>349</v>
+      </c>
+      <c r="C53" t="s">
+        <v>350</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>351</v>
+      </c>
+      <c r="F53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" t="s">
+        <v>352</v>
+      </c>
+      <c r="H53" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53">
+        <v>5.3834551170713757E-3</v>
+      </c>
+      <c r="J53">
+        <v>-2.0202707317519466E-2</v>
+      </c>
+      <c r="K53">
+        <v>2.851821581329508E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>348</v>
+      </c>
+      <c r="B54" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" t="s">
+        <v>350</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>351</v>
+      </c>
+      <c r="F54" t="s">
+        <v>262</v>
+      </c>
+      <c r="G54" t="s">
+        <v>352</v>
+      </c>
+      <c r="H54" t="s">
+        <v>245</v>
+      </c>
+      <c r="I54">
+        <v>3.157964334726288E-3</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1.7775489958670895E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" t="s">
+        <v>349</v>
+      </c>
+      <c r="C55" t="s">
+        <v>350</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>351</v>
+      </c>
+      <c r="F55" t="s">
+        <v>265</v>
+      </c>
+      <c r="G55" t="s">
+        <v>352</v>
+      </c>
+      <c r="H55" t="s">
+        <v>122</v>
+      </c>
+      <c r="I55">
+        <v>4.5724640231131859E-3</v>
+      </c>
+      <c r="J55">
+        <v>2.9558802241544429E-2</v>
+      </c>
+      <c r="K55">
+        <v>2.4786670523889762E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>348</v>
+      </c>
+      <c r="B56" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" t="s">
+        <v>350</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>351</v>
+      </c>
+      <c r="F56" t="s">
+        <v>268</v>
+      </c>
+      <c r="G56" t="s">
+        <v>352</v>
+      </c>
+      <c r="H56" t="s">
+        <v>230</v>
+      </c>
+      <c r="I56">
+        <v>3.3414160168904051E-3</v>
+      </c>
+      <c r="J56">
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="K56">
+        <v>2.021667644238281E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>348</v>
+      </c>
+      <c r="B57" t="s">
+        <v>349</v>
+      </c>
+      <c r="C57" t="s">
+        <v>350</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>351</v>
+      </c>
+      <c r="F57" t="s">
+        <v>270</v>
+      </c>
+      <c r="G57" t="s">
+        <v>352</v>
+      </c>
+      <c r="H57" t="s">
+        <v>245</v>
+      </c>
+      <c r="I57">
+        <v>3.1792521978924546E-3</v>
+      </c>
+      <c r="J57">
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="K57">
+        <v>1.7600222318099878E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>348</v>
+      </c>
+      <c r="B58" t="s">
+        <v>349</v>
+      </c>
+      <c r="C58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>351</v>
+      </c>
+      <c r="F58" t="s">
+        <v>273</v>
+      </c>
+      <c r="G58" t="s">
+        <v>352</v>
+      </c>
+      <c r="H58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I58">
+        <v>3.3624599660399333E-3</v>
+      </c>
+      <c r="J58">
+        <v>-3.0459207484708574E-2</v>
+      </c>
+      <c r="K58">
+        <v>2.1051281553062108E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>348</v>
+      </c>
+      <c r="B59" t="s">
+        <v>349</v>
+      </c>
+      <c r="C59" t="s">
+        <v>350</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F59" t="s">
+        <v>276</v>
+      </c>
+      <c r="G59" t="s">
+        <v>352</v>
+      </c>
+      <c r="H59" t="s">
+        <v>278</v>
+      </c>
+      <c r="I59">
+        <v>3.0193538814245456E-3</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1.7775489958670895E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>349</v>
+      </c>
+      <c r="C60" t="s">
+        <v>350</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>351</v>
+      </c>
+      <c r="F60" t="s">
+        <v>279</v>
+      </c>
+      <c r="G60" t="s">
+        <v>352</v>
+      </c>
+      <c r="H60" t="s">
+        <v>278</v>
+      </c>
+      <c r="I60">
+        <v>3.0243671843956333E-3</v>
+      </c>
+      <c r="J60">
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="K60">
+        <v>1.7428378565682977E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>348</v>
+      </c>
+      <c r="B61" t="s">
+        <v>349</v>
+      </c>
+      <c r="C61" t="s">
+        <v>350</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>351</v>
+      </c>
+      <c r="F61" t="s">
+        <v>282</v>
+      </c>
+      <c r="G61" t="s">
+        <v>352</v>
+      </c>
+      <c r="H61" t="s">
+        <v>91</v>
+      </c>
+      <c r="I61">
+        <v>5.5237368363655111E-3</v>
+      </c>
+      <c r="J61">
+        <v>4.8790164169432049E-2</v>
+      </c>
+      <c r="K61">
+        <v>2.9186314075955181E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>348</v>
+      </c>
+      <c r="B62" t="s">
+        <v>349</v>
+      </c>
+      <c r="C62" t="s">
+        <v>350</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>351</v>
+      </c>
+      <c r="F62" t="s">
+        <v>287</v>
+      </c>
+      <c r="G62" t="s">
+        <v>352</v>
+      </c>
+      <c r="H62" t="s">
+        <v>152</v>
+      </c>
+      <c r="I62">
+        <v>4.4739424041467394E-3</v>
+      </c>
+      <c r="J62">
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="K62">
+        <v>3.0046692769485604E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63" t="s">
+        <v>349</v>
+      </c>
+      <c r="C63" t="s">
+        <v>350</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>351</v>
+      </c>
+      <c r="F63" t="s">
+        <v>291</v>
+      </c>
+      <c r="G63" t="s">
+        <v>352</v>
+      </c>
+      <c r="H63" t="s">
+        <v>245</v>
+      </c>
+      <c r="I63">
+        <v>3.2255089532494787E-3</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1.7775489958670895E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>348</v>
+      </c>
+      <c r="B64" t="s">
+        <v>349</v>
+      </c>
+      <c r="C64" t="s">
+        <v>350</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>351</v>
+      </c>
+      <c r="F64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G64" t="s">
+        <v>352</v>
+      </c>
+      <c r="H64" t="s">
+        <v>230</v>
+      </c>
+      <c r="I64">
+        <v>3.413229426799249E-3</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1.795428488821418E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" t="s">
+        <v>349</v>
+      </c>
+      <c r="C65" t="s">
+        <v>350</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>351</v>
+      </c>
+      <c r="F65" t="s">
+        <v>296</v>
+      </c>
+      <c r="G65" t="s">
+        <v>352</v>
+      </c>
+      <c r="H65" t="s">
+        <v>278</v>
+      </c>
+      <c r="I65">
+        <v>3.0575583491919659E-3</v>
+      </c>
+      <c r="J65">
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="K65">
+        <v>1.7600222318099878E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>348</v>
+      </c>
+      <c r="B66" t="s">
+        <v>349</v>
+      </c>
+      <c r="C66" t="s">
+        <v>350</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>351</v>
+      </c>
+      <c r="F66" t="s">
+        <v>300</v>
+      </c>
+      <c r="G66" t="s">
+        <v>352</v>
+      </c>
+      <c r="H66" t="s">
+        <v>201</v>
+      </c>
+      <c r="I66">
+        <v>3.609083481225025E-3</v>
+      </c>
+      <c r="J66">
+        <v>2.9558802241544429E-2</v>
+      </c>
+      <c r="K66">
+        <v>1.9823720491662328E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>348</v>
+      </c>
+      <c r="B67" t="s">
+        <v>349</v>
+      </c>
+      <c r="C67" t="s">
+        <v>350</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>351</v>
+      </c>
+      <c r="F67" t="s">
+        <v>303</v>
+      </c>
+      <c r="G67" t="s">
+        <v>352</v>
+      </c>
+      <c r="H67" t="s">
+        <v>51</v>
+      </c>
+      <c r="I67">
+        <v>7.21816696245005E-3</v>
+      </c>
+      <c r="J67">
+        <v>5.8268908123975824E-2</v>
+      </c>
+      <c r="K67">
+        <v>4.0807308595070944E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>348</v>
+      </c>
+      <c r="B68" t="s">
+        <v>349</v>
+      </c>
+      <c r="C68" t="s">
+        <v>350</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>351</v>
+      </c>
+      <c r="F68" t="s">
+        <v>308</v>
+      </c>
+      <c r="G68" t="s">
+        <v>352</v>
+      </c>
+      <c r="H68" t="s">
+        <v>230</v>
+      </c>
+      <c r="I68">
+        <v>3.4422677991651496E-3</v>
+      </c>
+      <c r="J68">
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="K68">
+        <v>2.0018269245279413E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>348</v>
+      </c>
+      <c r="B69" t="s">
+        <v>349</v>
+      </c>
+      <c r="C69" t="s">
+        <v>350</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>351</v>
+      </c>
+      <c r="F69" t="s">
+        <v>312</v>
+      </c>
+      <c r="G69" t="s">
+        <v>352</v>
+      </c>
+      <c r="H69" t="s">
+        <v>160</v>
+      </c>
+      <c r="I69">
+        <v>4.0033087284456915E-3</v>
+      </c>
+      <c r="J69">
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="K69">
+        <v>2.3090308046130589E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>348</v>
+      </c>
+      <c r="B70" t="s">
+        <v>349</v>
+      </c>
+      <c r="C70" t="s">
+        <v>350</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>351</v>
+      </c>
+      <c r="F70" t="s">
+        <v>316</v>
+      </c>
+      <c r="G70" t="s">
+        <v>352</v>
+      </c>
+      <c r="H70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I70">
+        <v>3.1008536966410077E-3</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>2.0419058079983801E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>348</v>
+      </c>
+      <c r="B71" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" t="s">
+        <v>350</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>351</v>
+      </c>
+      <c r="F71" t="s">
+        <v>319</v>
+      </c>
+      <c r="G71" t="s">
+        <v>352</v>
+      </c>
+      <c r="H71" t="s">
+        <v>230</v>
+      </c>
+      <c r="I71">
+        <v>3.4830228110857933E-3</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>2.0419058079983801E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/mokry_obesity_2016.xlsx
+++ b/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/mokry_obesity_2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f99f7067dc2a9a5/Documents/R/Working Directory/Data_Science_MSc/Dissertation_Bayes_MR/MSc_Thesis/MSc_Thesis_Split/Data/Citations_Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{22C4E43D-6371-4515-9FCB-E71DF9F4DBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A93F10F-09D3-4F31-BA50-4CB9BFD7CF3F}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{22C4E43D-6371-4515-9FCB-E71DF9F4DBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4F584BA-4AD1-4B06-BBDC-BB0F4958DBBE}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{8A3BB852-7168-48D5-AFAC-CE153936FD9B}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{8A3BB852-7168-48D5-AFAC-CE153936FD9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Table004 (Page 7-8)" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="335">
   <si>
     <t>BMI-Associated</t>
   </si>
@@ -1056,67 +1056,13 @@
   </si>
   <si>
     <t>Upp_CI</t>
-  </si>
-  <si>
-    <t>SE_Lower_Only</t>
-  </si>
-  <si>
-    <t>SE_Both</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Study_Ref</t>
-  </si>
-  <si>
-    <t>Study_DOI</t>
-  </si>
-  <si>
-    <t>Exposure</t>
-  </si>
-  <si>
-    <t>Outcome</t>
-  </si>
-  <si>
-    <t>Instrument</t>
-  </si>
-  <si>
-    <t>Reported_Measure</t>
-  </si>
-  <si>
-    <t>Coeff_G_X</t>
-  </si>
-  <si>
-    <t>Coeff_G_X_SE</t>
-  </si>
-  <si>
-    <t>Coeff_G_Y</t>
-  </si>
-  <si>
-    <t>Coeff_G_Y_SE</t>
-  </si>
-  <si>
-    <t>Mokry et al</t>
-  </si>
-  <si>
-    <t>[@mokry_obesity_2016]</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pmed.1002053</t>
-  </si>
-  <si>
-    <t>Multiple Sclerosis</t>
-  </si>
-  <si>
-    <t>OR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1128,12 +1074,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1214,10 +1154,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1585,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ADCFF7-C1EB-4801-B550-02DC019036B8}">
-  <dimension ref="A1:AD72"/>
+  <dimension ref="A1:AB72"/>
   <sheetViews>
-    <sheetView topLeftCell="T2" workbookViewId="0">
-      <selection activeCell="AC72" sqref="AC3:AC72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3:AB72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1609,7 +1545,7 @@
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1604,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1721,13 +1657,10 @@
         <v>334</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1810,16 +1743,8 @@
         <f>(Y3-Z3)/1.96</f>
         <v>1.5540411981994171E-2</v>
       </c>
-      <c r="AC3">
-        <f>(AA3-Z3)/2/1.96</f>
-        <v>1.7775489958670895E-2</v>
-      </c>
-      <c r="AD3">
-        <f>(AA3-Y3)/1.96</f>
-        <v>2.0010567935347619E-2</v>
-      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1902,16 +1827,8 @@
         <f t="shared" ref="AB4:AB67" si="3">(Y4-Z4)/1.96</f>
         <v>2.0827548224619984E-2</v>
       </c>
-      <c r="AC4">
-        <f t="shared" ref="AC4:AC67" si="4">(AA4-Z4)/2/1.96</f>
-        <v>2.0419058079983801E-2</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" ref="AD4:AD67" si="5">(AA4-Y4)/1.96</f>
-        <v>2.0010567935347619E-2</v>
-      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1994,16 +1911,8 @@
         <f t="shared" si="3"/>
         <v>1.9816241487889776E-2</v>
       </c>
-      <c r="AC5">
-        <f t="shared" si="4"/>
-        <v>2.1775471671213478E-2</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="5"/>
-        <v>2.3734701854537188E-2</v>
-      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2086,16 +1995,8 @@
         <f t="shared" si="3"/>
         <v>1.5231103647796521E-2</v>
       </c>
-      <c r="AC6">
-        <f t="shared" si="4"/>
-        <v>1.5010331638503445E-2</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="5"/>
-        <v>1.4789559629210367E-2</v>
-      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2178,16 +2079,8 @@
         <f t="shared" si="3"/>
         <v>2.0827548224619984E-2</v>
       </c>
-      <c r="AC7">
-        <f t="shared" si="4"/>
-        <v>2.286024456369572E-2</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="5"/>
-        <v>2.4892940902771454E-2</v>
-      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -2270,16 +2163,8 @@
         <f t="shared" si="3"/>
         <v>2.5138290309583051E-2</v>
       </c>
-      <c r="AC8">
-        <f t="shared" si="4"/>
-        <v>2.219677984429333E-2</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="5"/>
-        <v>1.9255269379003605E-2</v>
-      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -2362,16 +2247,8 @@
         <f t="shared" si="3"/>
         <v>2.0208743926043816E-2</v>
       </c>
-      <c r="AC9">
-        <f t="shared" si="4"/>
-        <v>2.219677984429333E-2</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="5"/>
-        <v>2.418481576254284E-2</v>
-      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -2454,16 +2331,8 @@
         <f t="shared" si="3"/>
         <v>1.5699825850384548E-2</v>
       </c>
-      <c r="AC10">
-        <f t="shared" si="4"/>
-        <v>1.795428488821418E-2</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="5"/>
-        <v>2.0208743926043816E-2</v>
-      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -2546,16 +2415,8 @@
         <f t="shared" si="3"/>
         <v>2.0410885006989385E-2</v>
       </c>
-      <c r="AC11">
-        <f t="shared" si="4"/>
-        <v>2.0018269245279413E-2</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="5"/>
-        <v>1.9625653483569438E-2</v>
-      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -2638,16 +2499,8 @@
         <f t="shared" si="3"/>
         <v>1.9625653483569438E-2</v>
       </c>
-      <c r="AC12">
-        <f t="shared" si="4"/>
-        <v>1.6932415547161402E-2</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="5"/>
-        <v>1.4239177610753362E-2</v>
-      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -2730,16 +2583,8 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-      <c r="AC13">
-        <f t="shared" si="4"/>
-        <v>1.7775489958670895E-2</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="5"/>
-        <v>1.4933868520465937E-2</v>
-      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -2822,16 +2667,8 @@
         <f t="shared" si="3"/>
         <v>2.5643793255555259E-2</v>
       </c>
-      <c r="AC14">
-        <f t="shared" si="4"/>
-        <v>2.7403124648172694E-2</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="5"/>
-        <v>2.9162456040790135E-2</v>
-      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -2914,16 +2751,8 @@
         <f t="shared" si="3"/>
         <v>2.9729034757130523E-2</v>
       </c>
-      <c r="AC15">
-        <f t="shared" si="4"/>
-        <v>2.8910378904847774E-2</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="5"/>
-        <v>2.8091723052565024E-2</v>
-      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -3006,16 +2835,8 @@
         <f t="shared" si="3"/>
         <v>2.4892940902771454E-2</v>
       </c>
-      <c r="AC16">
-        <f t="shared" si="4"/>
-        <v>2.1984106183941941E-2</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="5"/>
-        <v>1.9075271465112429E-2</v>
-      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -3098,16 +2919,8 @@
         <f t="shared" si="3"/>
         <v>2.1042325782678128E-2</v>
       </c>
-      <c r="AC17">
-        <f t="shared" si="4"/>
-        <v>2.0625534854360972E-2</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="5"/>
-        <v>2.0208743926043816E-2</v>
-      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -3190,16 +3003,8 @@
         <f t="shared" si="3"/>
         <v>1.6028671547642325E-2</v>
       </c>
-      <c r="AC18">
-        <f t="shared" si="4"/>
-        <v>1.832289147225909E-2</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="5"/>
-        <v>2.0617111396875849E-2</v>
-      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -3282,16 +3087,8 @@
         <f t="shared" si="3"/>
         <v>2.0410885006989385E-2</v>
       </c>
-      <c r="AC19">
-        <f t="shared" si="4"/>
-        <v>1.7600222318099878E-2</v>
-      </c>
-      <c r="AD19">
-        <f t="shared" si="5"/>
-        <v>1.4789559629210367E-2</v>
-      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -3374,16 +3171,8 @@
         <f t="shared" si="3"/>
         <v>1.5699825850384548E-2</v>
       </c>
-      <c r="AC20">
-        <f t="shared" si="4"/>
-        <v>1.795428488821418E-2</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" si="5"/>
-        <v>2.0208743926043816E-2</v>
-      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -3466,16 +3255,8 @@
         <f t="shared" si="3"/>
         <v>1.6028671547642325E-2</v>
       </c>
-      <c r="AC21">
-        <f t="shared" si="4"/>
-        <v>1.832289147225909E-2</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="5"/>
-        <v>2.0617111396875849E-2</v>
-      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -3558,16 +3339,8 @@
         <f t="shared" si="3"/>
         <v>1.5231103647796521E-2</v>
       </c>
-      <c r="AC22">
-        <f t="shared" si="4"/>
-        <v>1.7428378565682977E-2</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="5"/>
-        <v>1.9625653483569438E-2</v>
-      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -3650,16 +3423,8 @@
         <f t="shared" si="3"/>
         <v>2.1042325782678128E-2</v>
       </c>
-      <c r="AC23">
-        <f t="shared" si="4"/>
-        <v>2.3090308046130589E-2</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" si="5"/>
-        <v>2.5138290309583051E-2</v>
-      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -3742,16 +3507,8 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-      <c r="AC24">
-        <f t="shared" si="4"/>
-        <v>2.021667644238281E-2</v>
-      </c>
-      <c r="AD24">
-        <f t="shared" si="5"/>
-        <v>1.9816241487889776E-2</v>
-      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>154</v>
       </c>
@@ -3834,16 +3591,8 @@
         <f t="shared" si="3"/>
         <v>2.5904247639501662E-2</v>
       </c>
-      <c r="AC25">
-        <f t="shared" si="4"/>
-        <v>2.5278291490875252E-2</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" si="5"/>
-        <v>2.4652335342248845E-2</v>
-      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>157</v>
       </c>
@@ -3926,16 +3675,8 @@
         <f t="shared" si="3"/>
         <v>2.1042325782678128E-2</v>
       </c>
-      <c r="AC26">
-        <f t="shared" si="4"/>
-        <v>2.0625534854360972E-2</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="5"/>
-        <v>2.0208743926043816E-2</v>
-      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -4018,16 +3759,8 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-      <c r="AC27">
-        <f t="shared" si="4"/>
-        <v>2.021667644238281E-2</v>
-      </c>
-      <c r="AD27">
-        <f t="shared" si="5"/>
-        <v>1.9816241487889776E-2</v>
-      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>166</v>
       </c>
@@ -4110,16 +3843,8 @@
         <f t="shared" si="3"/>
         <v>1.586254442348526E-2</v>
       </c>
-      <c r="AC28">
-        <f t="shared" si="4"/>
-        <v>1.8136714715237322E-2</v>
-      </c>
-      <c r="AD28">
-        <f t="shared" si="5"/>
-        <v>2.0410885006989385E-2</v>
-      </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>171</v>
       </c>
@@ -4202,16 +3927,8 @@
         <f t="shared" si="3"/>
         <v>2.0827548224619984E-2</v>
       </c>
-      <c r="AC29">
-        <f t="shared" si="4"/>
-        <v>1.795428488821418E-2</v>
-      </c>
-      <c r="AD29">
-        <f t="shared" si="5"/>
-        <v>1.5081021551808382E-2</v>
-      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>176</v>
       </c>
@@ -4294,16 +4011,8 @@
         <f t="shared" si="3"/>
         <v>2.1042325782678128E-2</v>
       </c>
-      <c r="AC30">
-        <f t="shared" si="4"/>
-        <v>2.0625534854360972E-2</v>
-      </c>
-      <c r="AD30">
-        <f t="shared" si="5"/>
-        <v>2.0208743926043816E-2</v>
-      </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -4386,16 +4095,8 @@
         <f t="shared" si="3"/>
         <v>2.0208743926043816E-2</v>
       </c>
-      <c r="AC31">
-        <f t="shared" si="4"/>
-        <v>1.9823720491662328E-2</v>
-      </c>
-      <c r="AD31">
-        <f t="shared" si="5"/>
-        <v>1.9438697057280834E-2</v>
-      </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>185</v>
       </c>
@@ -4478,16 +4179,8 @@
         <f t="shared" si="3"/>
         <v>2.1042325782678128E-2</v>
       </c>
-      <c r="AC32">
-        <f t="shared" si="4"/>
-        <v>2.0625534854360972E-2</v>
-      </c>
-      <c r="AD32">
-        <f t="shared" si="5"/>
-        <v>2.0208743926043816E-2</v>
-      </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>190</v>
       </c>
@@ -4570,16 +4263,8 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-      <c r="AC33">
-        <f t="shared" si="4"/>
-        <v>2.2634723369562348E-2</v>
-      </c>
-      <c r="AD33">
-        <f t="shared" si="5"/>
-        <v>2.4652335342248845E-2</v>
-      </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>193</v>
       </c>
@@ -4662,16 +4347,8 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-      <c r="AC34">
-        <f t="shared" si="4"/>
-        <v>1.7775489958670895E-2</v>
-      </c>
-      <c r="AD34">
-        <f t="shared" si="5"/>
-        <v>1.4933868520465937E-2</v>
-      </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>196</v>
       </c>
@@ -4754,16 +4431,8 @@
         <f t="shared" si="3"/>
         <v>2.0410885006989385E-2</v>
       </c>
-      <c r="AC35">
-        <f t="shared" si="4"/>
-        <v>2.2413611171258761E-2</v>
-      </c>
-      <c r="AD35">
-        <f t="shared" si="5"/>
-        <v>2.4416337335528129E-2</v>
-      </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>199</v>
       </c>
@@ -4846,16 +4515,8 @@
         <f t="shared" si="3"/>
         <v>2.1261579796208196E-2</v>
       </c>
-      <c r="AC36">
-        <f t="shared" si="4"/>
-        <v>2.0836232401598792E-2</v>
-      </c>
-      <c r="AD36">
-        <f t="shared" si="5"/>
-        <v>2.0410885006989385E-2</v>
-      </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>203</v>
       </c>
@@ -4938,16 +4599,8 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-      <c r="AC37">
-        <f t="shared" si="4"/>
-        <v>2.021667644238281E-2</v>
-      </c>
-      <c r="AD37">
-        <f t="shared" si="5"/>
-        <v>1.9816241487889776E-2</v>
-      </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>207</v>
       </c>
@@ -5030,16 +4683,8 @@
         <f t="shared" si="3"/>
         <v>2.0208743926043816E-2</v>
       </c>
-      <c r="AC38">
-        <f t="shared" si="4"/>
-        <v>1.9823720491662328E-2</v>
-      </c>
-      <c r="AD38">
-        <f t="shared" si="5"/>
-        <v>1.9438697057280834E-2</v>
-      </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -5122,16 +4767,8 @@
         <f t="shared" si="3"/>
         <v>1.5384203148309978E-2</v>
       </c>
-      <c r="AC39">
-        <f t="shared" si="4"/>
-        <v>1.7600222318099878E-2</v>
-      </c>
-      <c r="AD39">
-        <f t="shared" si="5"/>
-        <v>1.9816241487889776E-2</v>
-      </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>215</v>
       </c>
@@ -5214,16 +4851,8 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-      <c r="AC40">
-        <f t="shared" si="4"/>
-        <v>2.2634723369562348E-2</v>
-      </c>
-      <c r="AD40">
-        <f t="shared" si="5"/>
-        <v>2.4652335342248845E-2</v>
-      </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>218</v>
       </c>
@@ -5306,16 +4935,8 @@
         <f t="shared" si="3"/>
         <v>3.6273429430474645E-2</v>
       </c>
-      <c r="AC41">
-        <f t="shared" si="4"/>
-        <v>3.5069130262398725E-2</v>
-      </c>
-      <c r="AD41">
-        <f t="shared" si="5"/>
-        <v>3.3864831094322805E-2</v>
-      </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>222</v>
       </c>
@@ -5398,16 +5019,8 @@
         <f t="shared" si="3"/>
         <v>1.5540411981994171E-2</v>
       </c>
-      <c r="AC42">
-        <f t="shared" si="4"/>
-        <v>1.7775489958670895E-2</v>
-      </c>
-      <c r="AD42">
-        <f t="shared" si="5"/>
-        <v>2.0010567935347619E-2</v>
-      </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>226</v>
       </c>
@@ -5490,16 +5103,8 @@
         <f t="shared" si="3"/>
         <v>2.0208743926043816E-2</v>
       </c>
-      <c r="AC43">
-        <f t="shared" si="4"/>
-        <v>1.9823720491662328E-2</v>
-      </c>
-      <c r="AD43">
-        <f t="shared" si="5"/>
-        <v>1.9438697057280834E-2</v>
-      </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>228</v>
       </c>
@@ -5582,16 +5187,8 @@
         <f t="shared" si="3"/>
         <v>1.5231103647796521E-2</v>
       </c>
-      <c r="AC44">
-        <f t="shared" si="4"/>
-        <v>1.7428378565682977E-2</v>
-      </c>
-      <c r="AD44">
-        <f t="shared" si="5"/>
-        <v>1.9625653483569438E-2</v>
-      </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>232</v>
       </c>
@@ -5674,16 +5271,8 @@
         <f t="shared" si="3"/>
         <v>2.0410885006989385E-2</v>
       </c>
-      <c r="AC45">
-        <f t="shared" si="4"/>
-        <v>1.7600222318099878E-2</v>
-      </c>
-      <c r="AD45">
-        <f t="shared" si="5"/>
-        <v>1.4789559629210367E-2</v>
-      </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>235</v>
       </c>
@@ -5766,16 +5355,8 @@
         <f t="shared" si="3"/>
         <v>1.5231103647796521E-2</v>
       </c>
-      <c r="AC46">
-        <f t="shared" si="4"/>
-        <v>1.7428378565682977E-2</v>
-      </c>
-      <c r="AD46">
-        <f t="shared" si="5"/>
-        <v>1.9625653483569438E-2</v>
-      </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>237</v>
       </c>
@@ -5858,16 +5439,8 @@
         <f t="shared" si="3"/>
         <v>1.5384203148309978E-2</v>
       </c>
-      <c r="AC47">
-        <f t="shared" si="4"/>
-        <v>1.7600222318099878E-2</v>
-      </c>
-      <c r="AD47">
-        <f t="shared" si="5"/>
-        <v>1.9816241487889776E-2</v>
-      </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>240</v>
       </c>
@@ -5950,16 +5523,8 @@
         <f t="shared" si="3"/>
         <v>2.0208743926043816E-2</v>
       </c>
-      <c r="AC48">
-        <f t="shared" si="4"/>
-        <v>1.9823720491662328E-2</v>
-      </c>
-      <c r="AD48">
-        <f t="shared" si="5"/>
-        <v>1.9438697057280834E-2</v>
-      </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>243</v>
       </c>
@@ -6042,16 +5607,8 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-      <c r="AC49">
-        <f t="shared" si="4"/>
-        <v>2.021667644238281E-2</v>
-      </c>
-      <c r="AD49">
-        <f t="shared" si="5"/>
-        <v>1.9816241487889776E-2</v>
-      </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>246</v>
       </c>
@@ -6134,16 +5691,8 @@
         <f t="shared" si="3"/>
         <v>2.0827548224619984E-2</v>
       </c>
-      <c r="AC50">
-        <f t="shared" si="4"/>
-        <v>2.0419058079983801E-2</v>
-      </c>
-      <c r="AD50">
-        <f t="shared" si="5"/>
-        <v>2.0010567935347619E-2</v>
-      </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>248</v>
       </c>
@@ -6226,16 +5775,8 @@
         <f t="shared" si="3"/>
         <v>3.1246747571795241E-2</v>
       </c>
-      <c r="AC51">
-        <f t="shared" si="4"/>
-        <v>3.0344883383001391E-2</v>
-      </c>
-      <c r="AD51">
-        <f t="shared" si="5"/>
-        <v>2.9443019194207536E-2</v>
-      </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>252</v>
       </c>
@@ -6318,16 +5859,8 @@
         <f t="shared" si="3"/>
         <v>1.6028671547642325E-2</v>
       </c>
-      <c r="AC52">
-        <f t="shared" si="4"/>
-        <v>1.5784541764818246E-2</v>
-      </c>
-      <c r="AD52">
-        <f t="shared" si="5"/>
-        <v>1.5540411981994171E-2</v>
-      </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -6410,16 +5943,8 @@
         <f t="shared" si="3"/>
         <v>2.0010567935347619E-2</v>
       </c>
-      <c r="AC53">
-        <f t="shared" si="4"/>
-        <v>2.1984106183941941E-2</v>
-      </c>
-      <c r="AD53">
-        <f t="shared" si="5"/>
-        <v>2.3957644432536267E-2</v>
-      </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>259</v>
       </c>
@@ -6502,16 +6027,8 @@
         <f t="shared" si="3"/>
         <v>2.6718359957814238E-2</v>
       </c>
-      <c r="AC54">
-        <f t="shared" si="4"/>
-        <v>2.851821581329508E-2</v>
-      </c>
-      <c r="AD54">
-        <f t="shared" si="5"/>
-        <v>3.0318071668775915E-2</v>
-      </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>262</v>
       </c>
@@ -6594,16 +6111,8 @@
         <f t="shared" si="3"/>
         <v>1.5540411981994171E-2</v>
       </c>
-      <c r="AC55">
-        <f t="shared" si="4"/>
-        <v>1.7775489958670895E-2</v>
-      </c>
-      <c r="AD55">
-        <f t="shared" si="5"/>
-        <v>2.0010567935347619E-2</v>
-      </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>265</v>
       </c>
@@ -6686,16 +6195,8 @@
         <f t="shared" si="3"/>
         <v>2.538852528523668E-2</v>
       </c>
-      <c r="AC56">
-        <f t="shared" si="4"/>
-        <v>2.4786670523889762E-2</v>
-      </c>
-      <c r="AD56">
-        <f t="shared" si="5"/>
-        <v>2.418481576254284E-2</v>
-      </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>268</v>
       </c>
@@ -6778,16 +6279,8 @@
         <f t="shared" si="3"/>
         <v>2.0617111396875849E-2</v>
       </c>
-      <c r="AC57">
-        <f t="shared" si="4"/>
-        <v>2.021667644238281E-2</v>
-      </c>
-      <c r="AD57">
-        <f t="shared" si="5"/>
-        <v>1.9816241487889776E-2</v>
-      </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>270</v>
       </c>
@@ -6870,16 +6363,8 @@
         <f t="shared" si="3"/>
         <v>1.5384203148309978E-2</v>
       </c>
-      <c r="AC58">
-        <f t="shared" si="4"/>
-        <v>1.7600222318099878E-2</v>
-      </c>
-      <c r="AD58">
-        <f t="shared" si="5"/>
-        <v>1.9816241487889776E-2</v>
-      </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>273</v>
       </c>
@@ -6962,16 +6447,8 @@
         <f t="shared" si="3"/>
         <v>2.1485451709248368E-2</v>
       </c>
-      <c r="AC59">
-        <f t="shared" si="4"/>
-        <v>2.1051281553062108E-2</v>
-      </c>
-      <c r="AD59">
-        <f t="shared" si="5"/>
-        <v>2.0617111396875849E-2</v>
-      </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>276</v>
       </c>
@@ -7054,16 +6531,8 @@
         <f t="shared" si="3"/>
         <v>1.5540411981994171E-2</v>
       </c>
-      <c r="AC60">
-        <f t="shared" si="4"/>
-        <v>1.7775489958670895E-2</v>
-      </c>
-      <c r="AD60">
-        <f t="shared" si="5"/>
-        <v>2.0010567935347619E-2</v>
-      </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>279</v>
       </c>
@@ -7146,16 +6615,8 @@
         <f t="shared" si="3"/>
         <v>1.5231103647796521E-2</v>
       </c>
-      <c r="AC61">
-        <f t="shared" si="4"/>
-        <v>1.7428378565682977E-2</v>
-      </c>
-      <c r="AD61">
-        <f t="shared" si="5"/>
-        <v>1.9625653483569438E-2</v>
-      </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>282</v>
       </c>
@@ -7238,16 +6699,8 @@
         <f t="shared" si="3"/>
         <v>3.0020663277006889E-2</v>
       </c>
-      <c r="AC62">
-        <f t="shared" si="4"/>
-        <v>2.9186314075955181E-2</v>
-      </c>
-      <c r="AD62">
-        <f t="shared" si="5"/>
-        <v>2.8351964874903473E-2</v>
-      </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>287</v>
       </c>
@@ -7330,16 +6783,8 @@
         <f t="shared" si="3"/>
         <v>3.0930929498181069E-2</v>
       </c>
-      <c r="AC63">
-        <f t="shared" si="4"/>
-        <v>3.0046692769485604E-2</v>
-      </c>
-      <c r="AD63">
-        <f t="shared" si="5"/>
-        <v>2.9162456040790135E-2</v>
-      </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>291</v>
       </c>
@@ -7422,16 +6867,8 @@
         <f t="shared" si="3"/>
         <v>1.5540411981994171E-2</v>
       </c>
-      <c r="AC64">
-        <f t="shared" si="4"/>
-        <v>1.7775489958670895E-2</v>
-      </c>
-      <c r="AD64">
-        <f t="shared" si="5"/>
-        <v>2.0010567935347619E-2</v>
-      </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>293</v>
       </c>
@@ -7514,16 +6951,8 @@
         <f t="shared" si="3"/>
         <v>2.0827548224619984E-2</v>
       </c>
-      <c r="AC65">
-        <f t="shared" si="4"/>
-        <v>1.795428488821418E-2</v>
-      </c>
-      <c r="AD65">
-        <f t="shared" si="5"/>
-        <v>1.5081021551808382E-2</v>
-      </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>296</v>
       </c>
@@ -7606,16 +7035,8 @@
         <f t="shared" si="3"/>
         <v>2.0410885006989385E-2</v>
       </c>
-      <c r="AC66">
-        <f t="shared" si="4"/>
-        <v>1.7600222318099878E-2</v>
-      </c>
-      <c r="AD66">
-        <f t="shared" si="5"/>
-        <v>1.4789559629210367E-2</v>
-      </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>300</v>
       </c>
@@ -7698,16 +7119,8 @@
         <f t="shared" si="3"/>
         <v>2.0208743926043816E-2</v>
       </c>
-      <c r="AC67">
-        <f t="shared" si="4"/>
-        <v>1.9823720491662328E-2</v>
-      </c>
-      <c r="AD67">
-        <f t="shared" si="5"/>
-        <v>1.9438697057280834E-2</v>
-      </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -7759,11 +7172,11 @@
         <v>322035</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S72" si="6">_xlfn.T.INV.2T(Q68,R68)</f>
+        <f t="shared" ref="S68:S72" si="4">_xlfn.T.INV.2T(Q68,R68)</f>
         <v>5.5415731179516623</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T72" si="7">ABS(S68)</f>
+        <f t="shared" ref="T68:T72" si="5">ABS(S68)</f>
         <v>5.5415731179516623</v>
       </c>
       <c r="U68" t="str">
@@ -7771,7 +7184,7 @@
         <v>0.040</v>
       </c>
       <c r="V68">
-        <f t="shared" ref="V68:V72" si="8">U68/T68</f>
+        <f t="shared" ref="V68:V72" si="6">U68/T68</f>
         <v>7.21816696245005E-3</v>
       </c>
       <c r="Y68">
@@ -7787,19 +7200,11 @@
         <v>0.13976194237515863</v>
       </c>
       <c r="AB68">
-        <f t="shared" ref="AB68:AB72" si="9">(Y68-Z68)/1.96</f>
+        <f t="shared" ref="AB68:AB72" si="7">(Y68-Z68)/1.96</f>
         <v>4.0036538490558826E-2</v>
       </c>
-      <c r="AC68">
-        <f t="shared" ref="AC68:AC72" si="10">(AA68-Z68)/2/1.96</f>
-        <v>4.0807308595070944E-2</v>
-      </c>
-      <c r="AD68">
-        <f t="shared" ref="AD68:AD72" si="11">(AA68-Y68)/1.96</f>
-        <v>4.1578078699583063E-2</v>
-      </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>308</v>
       </c>
@@ -7851,11 +7256,11 @@
         <v>322035</v>
       </c>
       <c r="S69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>5.5196170398503144</v>
       </c>
       <c r="T69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.5196170398503144</v>
       </c>
       <c r="U69" t="str">
@@ -7863,7 +7268,7 @@
         <v>0.019</v>
       </c>
       <c r="V69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.4422677991651496E-3</v>
       </c>
       <c r="Y69">
@@ -7879,19 +7284,11 @@
         <v>5.8268908123975824E-2</v>
       </c>
       <c r="AB69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.0410885006989385E-2</v>
       </c>
-      <c r="AC69">
-        <f t="shared" si="10"/>
-        <v>2.0018269245279413E-2</v>
-      </c>
-      <c r="AD69">
-        <f t="shared" si="11"/>
-        <v>1.9625653483569438E-2</v>
-      </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>312</v>
       </c>
@@ -7943,11 +7340,11 @@
         <v>322035</v>
       </c>
       <c r="S70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>5.49545425854319</v>
       </c>
       <c r="T70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.49545425854319</v>
       </c>
       <c r="U70" t="str">
@@ -7955,7 +7352,7 @@
         <v>0.022</v>
       </c>
       <c r="V70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.0033087284456915E-3</v>
       </c>
       <c r="Y70">
@@ -7971,19 +7368,11 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.1042325782678128E-2</v>
       </c>
-      <c r="AC70">
-        <f t="shared" si="10"/>
-        <v>2.3090308046130589E-2</v>
-      </c>
-      <c r="AD70">
-        <f t="shared" si="11"/>
-        <v>2.5138290309583051E-2</v>
-      </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>316</v>
       </c>
@@ -8035,11 +7424,11 @@
         <v>322035</v>
       </c>
       <c r="S71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>5.4823612021473993</v>
       </c>
       <c r="T71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.4823612021473993</v>
       </c>
       <c r="U71" t="str">
@@ -8047,7 +7436,7 @@
         <v>0.017</v>
       </c>
       <c r="V71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.1008536966410077E-3</v>
       </c>
       <c r="Y71">
@@ -8063,19 +7452,11 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.0827548224619984E-2</v>
       </c>
-      <c r="AC71">
-        <f t="shared" si="10"/>
-        <v>2.0419058079983801E-2</v>
-      </c>
-      <c r="AD71">
-        <f t="shared" si="11"/>
-        <v>2.0010567935347619E-2</v>
-      </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>319</v>
       </c>
@@ -8127,11 +7508,11 @@
         <v>322035</v>
       </c>
       <c r="S72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>5.4550317441294514</v>
       </c>
       <c r="T72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.4550317441294514</v>
       </c>
       <c r="U72" t="str">
@@ -8139,7 +7520,7 @@
         <v>0.019</v>
       </c>
       <c r="V72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.4830228110857933E-3</v>
       </c>
       <c r="Y72">
@@ -8155,16 +7536,8 @@
         <v>3.9220713153281329E-2</v>
       </c>
       <c r="AB72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.0827548224619984E-2</v>
-      </c>
-      <c r="AC72">
-        <f t="shared" si="10"/>
-        <v>2.0419058079983801E-2</v>
-      </c>
-      <c r="AD72">
-        <f t="shared" si="11"/>
-        <v>2.0010567935347619E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8177,2501 +7550,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE890338-A9EB-449D-8D4F-895A2109274B}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H1" t="s">
-        <v>344</v>
-      </c>
-      <c r="I1" t="s">
-        <v>345</v>
-      </c>
-      <c r="J1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2">
-        <v>1.7106513699587575E-3</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1.7775489958670895E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>352</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3">
-        <v>3.649024665057384E-3</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>2.0419058079983801E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>351</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4">
-        <v>4.0064745893953089E-3</v>
-      </c>
-      <c r="J4">
-        <v>4.8790164169432049E-2</v>
-      </c>
-      <c r="K4">
-        <v>2.1775471671213478E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" t="s">
-        <v>350</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>352</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5">
-        <v>3.0940714867255959E-3</v>
-      </c>
-      <c r="J5">
-        <v>1.980262729617973E-2</v>
-      </c>
-      <c r="K5">
-        <v>1.5010331638503445E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>348</v>
-      </c>
-      <c r="B6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>351</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" t="s">
-        <v>352</v>
-      </c>
-      <c r="H6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6">
-        <v>3.8703756544317736E-3</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>2.286024456369572E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7">
-        <v>4.017638968914862E-3</v>
-      </c>
-      <c r="J7">
-        <v>3.9220713153281329E-2</v>
-      </c>
-      <c r="K7">
-        <v>2.219677984429333E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>348</v>
-      </c>
-      <c r="B8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>351</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" t="s">
-        <v>352</v>
-      </c>
-      <c r="H8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8">
-        <v>3.7386530646937952E-3</v>
-      </c>
-      <c r="J8">
-        <v>2.9558802241544429E-2</v>
-      </c>
-      <c r="K8">
-        <v>2.219677984429333E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>348</v>
-      </c>
-      <c r="B9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>352</v>
-      </c>
-      <c r="H9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9">
-        <v>3.1102284521522887E-3</v>
-      </c>
-      <c r="J9">
-        <v>-1.0050335853501451E-2</v>
-      </c>
-      <c r="K9">
-        <v>1.795428488821418E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" t="s">
-        <v>349</v>
-      </c>
-      <c r="C10" t="s">
-        <v>350</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>351</v>
-      </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" t="s">
-        <v>352</v>
-      </c>
-      <c r="H10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10">
-        <v>3.1802854664185814E-3</v>
-      </c>
-      <c r="J10">
-        <v>1.980262729617973E-2</v>
-      </c>
-      <c r="K10">
-        <v>2.0018269245279413E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>348</v>
-      </c>
-      <c r="B11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C11" t="s">
-        <v>350</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>351</v>
-      </c>
-      <c r="F11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" t="s">
-        <v>352</v>
-      </c>
-      <c r="H11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11">
-        <v>3.0830327170072495E-3</v>
-      </c>
-      <c r="J11">
-        <v>5.8268908123975824E-2</v>
-      </c>
-      <c r="K11">
-        <v>1.6932415547161402E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>348</v>
-      </c>
-      <c r="B12" t="s">
-        <v>349</v>
-      </c>
-      <c r="C12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>351</v>
-      </c>
-      <c r="F12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" t="s">
-        <v>352</v>
-      </c>
-      <c r="H12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12">
-        <v>3.1217885107430307E-3</v>
-      </c>
-      <c r="J12">
-        <v>9.950330853168092E-3</v>
-      </c>
-      <c r="K12">
-        <v>1.7775489958670895E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>348</v>
-      </c>
-      <c r="B13" t="s">
-        <v>349</v>
-      </c>
-      <c r="C13" t="s">
-        <v>350</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>351</v>
-      </c>
-      <c r="F13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" t="s">
-        <v>352</v>
-      </c>
-      <c r="H13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13">
-        <v>4.6164610650375592E-3</v>
-      </c>
-      <c r="J13">
-        <v>1.980262729617973E-2</v>
-      </c>
-      <c r="K13">
-        <v>2.7403124648172694E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>348</v>
-      </c>
-      <c r="B14" t="s">
-        <v>349</v>
-      </c>
-      <c r="C14" t="s">
-        <v>350</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" t="s">
-        <v>352</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14">
-        <v>4.5505201226154141E-3</v>
-      </c>
-      <c r="J14">
-        <v>5.8268908123975824E-2</v>
-      </c>
-      <c r="K14">
-        <v>2.8910378904847774E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>348</v>
-      </c>
-      <c r="B15" t="s">
-        <v>349</v>
-      </c>
-      <c r="C15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>351</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" t="s">
-        <v>352</v>
-      </c>
-      <c r="H15" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15">
-        <v>4.1554174164966174E-3</v>
-      </c>
-      <c r="J15">
-        <v>4.8790164169432049E-2</v>
-      </c>
-      <c r="K15">
-        <v>2.1984106183941941E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>348</v>
-      </c>
-      <c r="B16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C16" t="s">
-        <v>350</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>351</v>
-      </c>
-      <c r="F16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" t="s">
-        <v>352</v>
-      </c>
-      <c r="H16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16">
-        <v>3.6469588572924081E-3</v>
-      </c>
-      <c r="J16">
-        <v>-1.0050335853501451E-2</v>
-      </c>
-      <c r="K16">
-        <v>2.0625534854360972E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>348</v>
-      </c>
-      <c r="B17" t="s">
-        <v>349</v>
-      </c>
-      <c r="C17" t="s">
-        <v>350</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>351</v>
-      </c>
-      <c r="F17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" t="s">
-        <v>352</v>
-      </c>
-      <c r="H17" t="s">
-        <v>122</v>
-      </c>
-      <c r="I17">
-        <v>3.1016834013285568E-3</v>
-      </c>
-      <c r="J17">
-        <v>-3.0459207484708574E-2</v>
-      </c>
-      <c r="K17">
-        <v>1.832289147225909E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>348</v>
-      </c>
-      <c r="B18" t="s">
-        <v>349</v>
-      </c>
-      <c r="C18" t="s">
-        <v>350</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>351</v>
-      </c>
-      <c r="F18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" t="s">
-        <v>352</v>
-      </c>
-      <c r="H18" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18">
-        <v>3.1093712759504904E-3</v>
-      </c>
-      <c r="J18">
-        <v>1.980262729617973E-2</v>
-      </c>
-      <c r="K18">
-        <v>1.7600222318099878E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>348</v>
-      </c>
-      <c r="B19" t="s">
-        <v>349</v>
-      </c>
-      <c r="C19" t="s">
-        <v>350</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>351</v>
-      </c>
-      <c r="F19" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" t="s">
-        <v>352</v>
-      </c>
-      <c r="H19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19">
-        <v>3.0459209921138621E-3</v>
-      </c>
-      <c r="J19">
-        <v>-1.0050335853501451E-2</v>
-      </c>
-      <c r="K19">
-        <v>1.795428488821418E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>348</v>
-      </c>
-      <c r="B20" t="s">
-        <v>349</v>
-      </c>
-      <c r="C20" t="s">
-        <v>350</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>351</v>
-      </c>
-      <c r="F20" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" t="s">
-        <v>352</v>
-      </c>
-      <c r="H20" t="s">
-        <v>139</v>
-      </c>
-      <c r="I20">
-        <v>3.5748833303499571E-3</v>
-      </c>
-      <c r="J20">
-        <v>-3.0459207484708574E-2</v>
-      </c>
-      <c r="K20">
-        <v>1.832289147225909E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>348</v>
-      </c>
-      <c r="B21" t="s">
-        <v>349</v>
-      </c>
-      <c r="C21" t="s">
-        <v>350</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>351</v>
-      </c>
-      <c r="F21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" t="s">
-        <v>352</v>
-      </c>
-      <c r="H21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21">
-        <v>3.1102577503204702E-3</v>
-      </c>
-      <c r="J21">
-        <v>1.980262729617973E-2</v>
-      </c>
-      <c r="K21">
-        <v>1.7428378565682977E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>348</v>
-      </c>
-      <c r="B22" t="s">
-        <v>349</v>
-      </c>
-      <c r="C22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>351</v>
-      </c>
-      <c r="F22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" t="s">
-        <v>352</v>
-      </c>
-      <c r="H22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I22">
-        <v>3.9103977687082164E-3</v>
-      </c>
-      <c r="J22">
-        <v>-1.0050335853501451E-2</v>
-      </c>
-      <c r="K22">
-        <v>2.3090308046130589E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>348</v>
-      </c>
-      <c r="B23" t="s">
-        <v>349</v>
-      </c>
-      <c r="C23" t="s">
-        <v>350</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>351</v>
-      </c>
-      <c r="F23" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H23" t="s">
-        <v>152</v>
-      </c>
-      <c r="I23">
-        <v>3.3351457186432043E-3</v>
-      </c>
-      <c r="J23">
-        <v>9.950330853168092E-3</v>
-      </c>
-      <c r="K23">
-        <v>2.021667644238281E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>348</v>
-      </c>
-      <c r="B24" t="s">
-        <v>349</v>
-      </c>
-      <c r="C24" t="s">
-        <v>350</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>351</v>
-      </c>
-      <c r="F24" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" t="s">
-        <v>352</v>
-      </c>
-      <c r="H24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24">
-        <v>4.6363533717789568E-3</v>
-      </c>
-      <c r="J24">
-        <v>9.950330853168092E-3</v>
-      </c>
-      <c r="K24">
-        <v>2.5278291490875252E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>348</v>
-      </c>
-      <c r="B25" t="s">
-        <v>349</v>
-      </c>
-      <c r="C25" t="s">
-        <v>350</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>351</v>
-      </c>
-      <c r="F25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" t="s">
-        <v>352</v>
-      </c>
-      <c r="H25" t="s">
-        <v>160</v>
-      </c>
-      <c r="I25">
-        <v>3.1009539353891694E-3</v>
-      </c>
-      <c r="J25">
-        <v>-1.0050335853501451E-2</v>
-      </c>
-      <c r="K25">
-        <v>2.0625534854360972E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>348</v>
-      </c>
-      <c r="B26" t="s">
-        <v>349</v>
-      </c>
-      <c r="C26" t="s">
-        <v>350</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>351</v>
-      </c>
-      <c r="F26" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" t="s">
-        <v>352</v>
-      </c>
-      <c r="H26" t="s">
-        <v>160</v>
-      </c>
-      <c r="I26">
-        <v>3.1303571212109218E-3</v>
-      </c>
-      <c r="J26">
-        <v>9.950330853168092E-3</v>
-      </c>
-      <c r="K26">
-        <v>2.021667644238281E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>348</v>
-      </c>
-      <c r="B27" t="s">
-        <v>349</v>
-      </c>
-      <c r="C27" t="s">
-        <v>350</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>351</v>
-      </c>
-      <c r="F27" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" t="s">
-        <v>352</v>
-      </c>
-      <c r="H27" t="s">
-        <v>169</v>
-      </c>
-      <c r="I27">
-        <v>3.3858286475286349E-3</v>
-      </c>
-      <c r="J27">
-        <v>-2.0202707317519466E-2</v>
-      </c>
-      <c r="K27">
-        <v>1.8136714715237322E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>348</v>
-      </c>
-      <c r="B28" t="s">
-        <v>349</v>
-      </c>
-      <c r="C28" t="s">
-        <v>350</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>351</v>
-      </c>
-      <c r="F28" t="s">
-        <v>171</v>
-      </c>
-      <c r="G28" t="s">
-        <v>352</v>
-      </c>
-      <c r="H28" t="s">
-        <v>169</v>
-      </c>
-      <c r="I28">
-        <v>3.3858286475286349E-3</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>1.795428488821418E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>348</v>
-      </c>
-      <c r="B29" t="s">
-        <v>349</v>
-      </c>
-      <c r="C29" t="s">
-        <v>350</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>351</v>
-      </c>
-      <c r="F29" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" t="s">
-        <v>352</v>
-      </c>
-      <c r="H29" t="s">
-        <v>160</v>
-      </c>
-      <c r="I29">
-        <v>3.2840062847118239E-3</v>
-      </c>
-      <c r="J29">
-        <v>-1.0050335853501451E-2</v>
-      </c>
-      <c r="K29">
-        <v>2.0625534854360972E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>348</v>
-      </c>
-      <c r="B30" t="s">
-        <v>349</v>
-      </c>
-      <c r="C30" t="s">
-        <v>350</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>351</v>
-      </c>
-      <c r="F30" t="s">
-        <v>180</v>
-      </c>
-      <c r="G30" t="s">
-        <v>352</v>
-      </c>
-      <c r="H30" t="s">
-        <v>169</v>
-      </c>
-      <c r="I30">
-        <v>3.4401141223554918E-3</v>
-      </c>
-      <c r="J30">
-        <v>2.9558802241544429E-2</v>
-      </c>
-      <c r="K30">
-        <v>1.9823720491662328E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>348</v>
-      </c>
-      <c r="B31" t="s">
-        <v>349</v>
-      </c>
-      <c r="C31" t="s">
-        <v>350</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>351</v>
-      </c>
-      <c r="F31" t="s">
-        <v>185</v>
-      </c>
-      <c r="G31" t="s">
-        <v>352</v>
-      </c>
-      <c r="H31" t="s">
-        <v>188</v>
-      </c>
-      <c r="I31">
-        <v>3.1570426012529937E-3</v>
-      </c>
-      <c r="J31">
-        <v>-1.0050335853501451E-2</v>
-      </c>
-      <c r="K31">
-        <v>2.0625534854360972E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>348</v>
-      </c>
-      <c r="B32" t="s">
-        <v>349</v>
-      </c>
-      <c r="C32" t="s">
-        <v>350</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>351</v>
-      </c>
-      <c r="F32" t="s">
-        <v>190</v>
-      </c>
-      <c r="G32" t="s">
-        <v>352</v>
-      </c>
-      <c r="H32" t="s">
-        <v>152</v>
-      </c>
-      <c r="I32">
-        <v>3.8188506389133458E-3</v>
-      </c>
-      <c r="J32">
-        <v>9.950330853168092E-3</v>
-      </c>
-      <c r="K32">
-        <v>2.2634723369562348E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>348</v>
-      </c>
-      <c r="B33" t="s">
-        <v>349</v>
-      </c>
-      <c r="C33" t="s">
-        <v>350</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>351</v>
-      </c>
-      <c r="F33" t="s">
-        <v>193</v>
-      </c>
-      <c r="G33" t="s">
-        <v>352</v>
-      </c>
-      <c r="H33" t="s">
-        <v>188</v>
-      </c>
-      <c r="I33">
-        <v>3.2611000381207386E-3</v>
-      </c>
-      <c r="J33">
-        <v>9.950330853168092E-3</v>
-      </c>
-      <c r="K33">
-        <v>1.7775489958670895E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>348</v>
-      </c>
-      <c r="B34" t="s">
-        <v>349</v>
-      </c>
-      <c r="C34" t="s">
-        <v>350</v>
-      </c>
-      <c r="D34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>351</v>
-      </c>
-      <c r="F34" t="s">
-        <v>196</v>
-      </c>
-      <c r="G34" t="s">
-        <v>352</v>
-      </c>
-      <c r="H34" t="s">
-        <v>160</v>
-      </c>
-      <c r="I34">
-        <v>3.4163905161264875E-3</v>
-      </c>
-      <c r="J34">
-        <v>1.980262729617973E-2</v>
-      </c>
-      <c r="K34">
-        <v>2.2413611171258761E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>348</v>
-      </c>
-      <c r="B35" t="s">
-        <v>349</v>
-      </c>
-      <c r="C35" t="s">
-        <v>350</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>351</v>
-      </c>
-      <c r="F35" t="s">
-        <v>199</v>
-      </c>
-      <c r="G35" t="s">
-        <v>352</v>
-      </c>
-      <c r="H35" t="s">
-        <v>201</v>
-      </c>
-      <c r="I35">
-        <v>3.1270864211269097E-3</v>
-      </c>
-      <c r="J35">
-        <v>-2.0202707317519466E-2</v>
-      </c>
-      <c r="K35">
-        <v>2.0836232401598792E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>348</v>
-      </c>
-      <c r="B36" t="s">
-        <v>349</v>
-      </c>
-      <c r="C36" t="s">
-        <v>350</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>351</v>
-      </c>
-      <c r="F36" t="s">
-        <v>203</v>
-      </c>
-      <c r="G36" t="s">
-        <v>352</v>
-      </c>
-      <c r="H36" t="s">
-        <v>160</v>
-      </c>
-      <c r="I36">
-        <v>3.4495150546990511E-3</v>
-      </c>
-      <c r="J36">
-        <v>9.950330853168092E-3</v>
-      </c>
-      <c r="K36">
-        <v>2.021667644238281E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>348</v>
-      </c>
-      <c r="B37" t="s">
-        <v>349</v>
-      </c>
-      <c r="C37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>351</v>
-      </c>
-      <c r="F37" t="s">
-        <v>207</v>
-      </c>
-      <c r="G37" t="s">
-        <v>352</v>
-      </c>
-      <c r="H37" t="s">
-        <v>201</v>
-      </c>
-      <c r="I37">
-        <v>3.1359227769991375E-3</v>
-      </c>
-      <c r="J37">
-        <v>2.9558802241544429E-2</v>
-      </c>
-      <c r="K37">
-        <v>1.9823720491662328E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>348</v>
-      </c>
-      <c r="B38" t="s">
-        <v>349</v>
-      </c>
-      <c r="C38" t="s">
-        <v>350</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
-        <v>351</v>
-      </c>
-      <c r="F38" t="s">
-        <v>211</v>
-      </c>
-      <c r="G38" t="s">
-        <v>352</v>
-      </c>
-      <c r="H38" t="s">
-        <v>188</v>
-      </c>
-      <c r="I38">
-        <v>3.2970040060210383E-3</v>
-      </c>
-      <c r="J38">
-        <v>9.950330853168092E-3</v>
-      </c>
-      <c r="K38">
-        <v>1.7600222318099878E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>348</v>
-      </c>
-      <c r="B39" t="s">
-        <v>349</v>
-      </c>
-      <c r="C39" t="s">
-        <v>350</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>351</v>
-      </c>
-      <c r="F39" t="s">
-        <v>215</v>
-      </c>
-      <c r="G39" t="s">
-        <v>352</v>
-      </c>
-      <c r="H39" t="s">
-        <v>147</v>
-      </c>
-      <c r="I39">
-        <v>4.731827345175914E-3</v>
-      </c>
-      <c r="J39">
-        <v>9.950330853168092E-3</v>
-      </c>
-      <c r="K39">
-        <v>2.2634723369562348E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>348</v>
-      </c>
-      <c r="B40" t="s">
-        <v>349</v>
-      </c>
-      <c r="C40" t="s">
-        <v>350</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
-        <v>351</v>
-      </c>
-      <c r="F40" t="s">
-        <v>218</v>
-      </c>
-      <c r="G40" t="s">
-        <v>352</v>
-      </c>
-      <c r="H40" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40">
-        <v>7.6547101529929129E-3</v>
-      </c>
-      <c r="J40">
-        <v>1.980262729617973E-2</v>
-      </c>
-      <c r="K40">
-        <v>3.5069130262398725E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>348</v>
-      </c>
-      <c r="B41" t="s">
-        <v>349</v>
-      </c>
-      <c r="C41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
-        <v>351</v>
-      </c>
-      <c r="F41" t="s">
-        <v>222</v>
-      </c>
-      <c r="G41" t="s">
-        <v>352</v>
-      </c>
-      <c r="H41" t="s">
-        <v>201</v>
-      </c>
-      <c r="I41">
-        <v>3.2347153051164972E-3</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>1.7775489958670895E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>348</v>
-      </c>
-      <c r="B42" t="s">
-        <v>349</v>
-      </c>
-      <c r="C42" t="s">
-        <v>350</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>351</v>
-      </c>
-      <c r="F42" t="s">
-        <v>226</v>
-      </c>
-      <c r="G42" t="s">
-        <v>352</v>
-      </c>
-      <c r="H42" t="s">
-        <v>169</v>
-      </c>
-      <c r="I42">
-        <v>3.7365871844980301E-3</v>
-      </c>
-      <c r="J42">
-        <v>2.9558802241544429E-2</v>
-      </c>
-      <c r="K42">
-        <v>1.9823720491662328E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>348</v>
-      </c>
-      <c r="B43" t="s">
-        <v>349</v>
-      </c>
-      <c r="C43" t="s">
-        <v>350</v>
-      </c>
-      <c r="D43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>351</v>
-      </c>
-      <c r="F43" t="s">
-        <v>228</v>
-      </c>
-      <c r="G43" t="s">
-        <v>352</v>
-      </c>
-      <c r="H43" t="s">
-        <v>230</v>
-      </c>
-      <c r="I43">
-        <v>3.0908838625917667E-3</v>
-      </c>
-      <c r="J43">
-        <v>1.980262729617973E-2</v>
-      </c>
-      <c r="K43">
-        <v>1.7428378565682977E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>348</v>
-      </c>
-      <c r="B44" t="s">
-        <v>349</v>
-      </c>
-      <c r="C44" t="s">
-        <v>350</v>
-      </c>
-      <c r="D44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" t="s">
-        <v>351</v>
-      </c>
-      <c r="F44" t="s">
-        <v>232</v>
-      </c>
-      <c r="G44" t="s">
-        <v>352</v>
-      </c>
-      <c r="H44" t="s">
-        <v>230</v>
-      </c>
-      <c r="I44">
-        <v>3.0928807413129855E-3</v>
-      </c>
-      <c r="J44">
-        <v>1.980262729617973E-2</v>
-      </c>
-      <c r="K44">
-        <v>1.7600222318099878E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>348</v>
-      </c>
-      <c r="B45" t="s">
-        <v>349</v>
-      </c>
-      <c r="C45" t="s">
-        <v>350</v>
-      </c>
-      <c r="D45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>351</v>
-      </c>
-      <c r="F45" t="s">
-        <v>235</v>
-      </c>
-      <c r="G45" t="s">
-        <v>352</v>
-      </c>
-      <c r="H45" t="s">
-        <v>188</v>
-      </c>
-      <c r="I45">
-        <v>3.4610202407590472E-3</v>
-      </c>
-      <c r="J45">
-        <v>1.980262729617973E-2</v>
-      </c>
-      <c r="K45">
-        <v>1.7428378565682977E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>348</v>
-      </c>
-      <c r="B46" t="s">
-        <v>349</v>
-      </c>
-      <c r="C46" t="s">
-        <v>350</v>
-      </c>
-      <c r="D46" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" t="s">
-        <v>351</v>
-      </c>
-      <c r="F46" t="s">
-        <v>237</v>
-      </c>
-      <c r="G46" t="s">
-        <v>352</v>
-      </c>
-      <c r="H46" t="s">
-        <v>188</v>
-      </c>
-      <c r="I46">
-        <v>3.4963252656081026E-3</v>
-      </c>
-      <c r="J46">
-        <v>9.950330853168092E-3</v>
-      </c>
-      <c r="K46">
-        <v>1.7600222318099878E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>348</v>
-      </c>
-      <c r="B47" t="s">
-        <v>349</v>
-      </c>
-      <c r="C47" t="s">
-        <v>350</v>
-      </c>
-      <c r="D47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>351</v>
-      </c>
-      <c r="F47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G47" t="s">
-        <v>352</v>
-      </c>
-      <c r="H47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I47">
-        <v>3.187050371155891E-3</v>
-      </c>
-      <c r="J47">
-        <v>2.9558802241544429E-2</v>
-      </c>
-      <c r="K47">
-        <v>1.9823720491662328E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>348</v>
-      </c>
-      <c r="B48" t="s">
-        <v>349</v>
-      </c>
-      <c r="C48" t="s">
-        <v>350</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>351</v>
-      </c>
-      <c r="F48" t="s">
-        <v>243</v>
-      </c>
-      <c r="G48" t="s">
-        <v>352</v>
-      </c>
-      <c r="H48" t="s">
-        <v>245</v>
-      </c>
-      <c r="I48">
-        <v>3.0193108779371599E-3</v>
-      </c>
-      <c r="J48">
-        <v>9.950330853168092E-3</v>
-      </c>
-      <c r="K48">
-        <v>2.021667644238281E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>348</v>
-      </c>
-      <c r="B49" t="s">
-        <v>349</v>
-      </c>
-      <c r="C49" t="s">
-        <v>350</v>
-      </c>
-      <c r="D49" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>351</v>
-      </c>
-      <c r="F49" t="s">
-        <v>246</v>
-      </c>
-      <c r="G49" t="s">
-        <v>352</v>
-      </c>
-      <c r="H49" t="s">
-        <v>245</v>
-      </c>
-      <c r="I49">
-        <v>3.071047346779402E-3</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>2.0419058079983801E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>348</v>
-      </c>
-      <c r="B50" t="s">
-        <v>349</v>
-      </c>
-      <c r="C50" t="s">
-        <v>350</v>
-      </c>
-      <c r="D50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>351</v>
-      </c>
-      <c r="F50" t="s">
-        <v>248</v>
-      </c>
-      <c r="G50" t="s">
-        <v>352</v>
-      </c>
-      <c r="H50" t="s">
-        <v>139</v>
-      </c>
-      <c r="I50">
-        <v>4.8409172195352148E-3</v>
-      </c>
-      <c r="J50">
-        <v>9.950330853168092E-3</v>
-      </c>
-      <c r="K50">
-        <v>3.0344883383001391E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>348</v>
-      </c>
-      <c r="B51" t="s">
-        <v>349</v>
-      </c>
-      <c r="C51" t="s">
-        <v>350</v>
-      </c>
-      <c r="D51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>351</v>
-      </c>
-      <c r="F51" t="s">
-        <v>252</v>
-      </c>
-      <c r="G51" t="s">
-        <v>352</v>
-      </c>
-      <c r="H51" t="s">
-        <v>245</v>
-      </c>
-      <c r="I51">
-        <v>3.1132498103861412E-3</v>
-      </c>
-      <c r="J51">
-        <v>-3.0459207484708574E-2</v>
-      </c>
-      <c r="K51">
-        <v>1.5784541764818246E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>348</v>
-      </c>
-      <c r="B52" t="s">
-        <v>349</v>
-      </c>
-      <c r="C52" t="s">
-        <v>350</v>
-      </c>
-      <c r="D52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
-        <v>351</v>
-      </c>
-      <c r="F52" t="s">
-        <v>255</v>
-      </c>
-      <c r="G52" t="s">
-        <v>352</v>
-      </c>
-      <c r="H52" t="s">
-        <v>91</v>
-      </c>
-      <c r="I52">
-        <v>5.3679176144036979E-3</v>
-      </c>
-      <c r="J52">
-        <v>3.9220713153281329E-2</v>
-      </c>
-      <c r="K52">
-        <v>2.1984106183941941E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>348</v>
-      </c>
-      <c r="B53" t="s">
-        <v>349</v>
-      </c>
-      <c r="C53" t="s">
-        <v>350</v>
-      </c>
-      <c r="D53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" t="s">
-        <v>351</v>
-      </c>
-      <c r="F53" t="s">
-        <v>259</v>
-      </c>
-      <c r="G53" t="s">
-        <v>352</v>
-      </c>
-      <c r="H53" t="s">
-        <v>91</v>
-      </c>
-      <c r="I53">
-        <v>5.3834551170713757E-3</v>
-      </c>
-      <c r="J53">
-        <v>-2.0202707317519466E-2</v>
-      </c>
-      <c r="K53">
-        <v>2.851821581329508E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>348</v>
-      </c>
-      <c r="B54" t="s">
-        <v>349</v>
-      </c>
-      <c r="C54" t="s">
-        <v>350</v>
-      </c>
-      <c r="D54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" t="s">
-        <v>351</v>
-      </c>
-      <c r="F54" t="s">
-        <v>262</v>
-      </c>
-      <c r="G54" t="s">
-        <v>352</v>
-      </c>
-      <c r="H54" t="s">
-        <v>245</v>
-      </c>
-      <c r="I54">
-        <v>3.157964334726288E-3</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>1.7775489958670895E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>348</v>
-      </c>
-      <c r="B55" t="s">
-        <v>349</v>
-      </c>
-      <c r="C55" t="s">
-        <v>350</v>
-      </c>
-      <c r="D55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" t="s">
-        <v>351</v>
-      </c>
-      <c r="F55" t="s">
-        <v>265</v>
-      </c>
-      <c r="G55" t="s">
-        <v>352</v>
-      </c>
-      <c r="H55" t="s">
-        <v>122</v>
-      </c>
-      <c r="I55">
-        <v>4.5724640231131859E-3</v>
-      </c>
-      <c r="J55">
-        <v>2.9558802241544429E-2</v>
-      </c>
-      <c r="K55">
-        <v>2.4786670523889762E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>348</v>
-      </c>
-      <c r="B56" t="s">
-        <v>349</v>
-      </c>
-      <c r="C56" t="s">
-        <v>350</v>
-      </c>
-      <c r="D56" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" t="s">
-        <v>351</v>
-      </c>
-      <c r="F56" t="s">
-        <v>268</v>
-      </c>
-      <c r="G56" t="s">
-        <v>352</v>
-      </c>
-      <c r="H56" t="s">
-        <v>230</v>
-      </c>
-      <c r="I56">
-        <v>3.3414160168904051E-3</v>
-      </c>
-      <c r="J56">
-        <v>9.950330853168092E-3</v>
-      </c>
-      <c r="K56">
-        <v>2.021667644238281E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>348</v>
-      </c>
-      <c r="B57" t="s">
-        <v>349</v>
-      </c>
-      <c r="C57" t="s">
-        <v>350</v>
-      </c>
-      <c r="D57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" t="s">
-        <v>351</v>
-      </c>
-      <c r="F57" t="s">
-        <v>270</v>
-      </c>
-      <c r="G57" t="s">
-        <v>352</v>
-      </c>
-      <c r="H57" t="s">
-        <v>245</v>
-      </c>
-      <c r="I57">
-        <v>3.1792521978924546E-3</v>
-      </c>
-      <c r="J57">
-        <v>9.950330853168092E-3</v>
-      </c>
-      <c r="K57">
-        <v>1.7600222318099878E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>348</v>
-      </c>
-      <c r="B58" t="s">
-        <v>349</v>
-      </c>
-      <c r="C58" t="s">
-        <v>350</v>
-      </c>
-      <c r="D58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" t="s">
-        <v>351</v>
-      </c>
-      <c r="F58" t="s">
-        <v>273</v>
-      </c>
-      <c r="G58" t="s">
-        <v>352</v>
-      </c>
-      <c r="H58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I58">
-        <v>3.3624599660399333E-3</v>
-      </c>
-      <c r="J58">
-        <v>-3.0459207484708574E-2</v>
-      </c>
-      <c r="K58">
-        <v>2.1051281553062108E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>348</v>
-      </c>
-      <c r="B59" t="s">
-        <v>349</v>
-      </c>
-      <c r="C59" t="s">
-        <v>350</v>
-      </c>
-      <c r="D59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" t="s">
-        <v>351</v>
-      </c>
-      <c r="F59" t="s">
-        <v>276</v>
-      </c>
-      <c r="G59" t="s">
-        <v>352</v>
-      </c>
-      <c r="H59" t="s">
-        <v>278</v>
-      </c>
-      <c r="I59">
-        <v>3.0193538814245456E-3</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>1.7775489958670895E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>348</v>
-      </c>
-      <c r="B60" t="s">
-        <v>349</v>
-      </c>
-      <c r="C60" t="s">
-        <v>350</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" t="s">
-        <v>351</v>
-      </c>
-      <c r="F60" t="s">
-        <v>279</v>
-      </c>
-      <c r="G60" t="s">
-        <v>352</v>
-      </c>
-      <c r="H60" t="s">
-        <v>278</v>
-      </c>
-      <c r="I60">
-        <v>3.0243671843956333E-3</v>
-      </c>
-      <c r="J60">
-        <v>1.980262729617973E-2</v>
-      </c>
-      <c r="K60">
-        <v>1.7428378565682977E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>348</v>
-      </c>
-      <c r="B61" t="s">
-        <v>349</v>
-      </c>
-      <c r="C61" t="s">
-        <v>350</v>
-      </c>
-      <c r="D61" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" t="s">
-        <v>351</v>
-      </c>
-      <c r="F61" t="s">
-        <v>282</v>
-      </c>
-      <c r="G61" t="s">
-        <v>352</v>
-      </c>
-      <c r="H61" t="s">
-        <v>91</v>
-      </c>
-      <c r="I61">
-        <v>5.5237368363655111E-3</v>
-      </c>
-      <c r="J61">
-        <v>4.8790164169432049E-2</v>
-      </c>
-      <c r="K61">
-        <v>2.9186314075955181E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>348</v>
-      </c>
-      <c r="B62" t="s">
-        <v>349</v>
-      </c>
-      <c r="C62" t="s">
-        <v>350</v>
-      </c>
-      <c r="D62" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" t="s">
-        <v>351</v>
-      </c>
-      <c r="F62" t="s">
-        <v>287</v>
-      </c>
-      <c r="G62" t="s">
-        <v>352</v>
-      </c>
-      <c r="H62" t="s">
-        <v>152</v>
-      </c>
-      <c r="I62">
-        <v>4.4739424041467394E-3</v>
-      </c>
-      <c r="J62">
-        <v>1.980262729617973E-2</v>
-      </c>
-      <c r="K62">
-        <v>3.0046692769485604E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>348</v>
-      </c>
-      <c r="B63" t="s">
-        <v>349</v>
-      </c>
-      <c r="C63" t="s">
-        <v>350</v>
-      </c>
-      <c r="D63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" t="s">
-        <v>351</v>
-      </c>
-      <c r="F63" t="s">
-        <v>291</v>
-      </c>
-      <c r="G63" t="s">
-        <v>352</v>
-      </c>
-      <c r="H63" t="s">
-        <v>245</v>
-      </c>
-      <c r="I63">
-        <v>3.2255089532494787E-3</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>1.7775489958670895E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>348</v>
-      </c>
-      <c r="B64" t="s">
-        <v>349</v>
-      </c>
-      <c r="C64" t="s">
-        <v>350</v>
-      </c>
-      <c r="D64" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" t="s">
-        <v>351</v>
-      </c>
-      <c r="F64" t="s">
-        <v>293</v>
-      </c>
-      <c r="G64" t="s">
-        <v>352</v>
-      </c>
-      <c r="H64" t="s">
-        <v>230</v>
-      </c>
-      <c r="I64">
-        <v>3.413229426799249E-3</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>1.795428488821418E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>348</v>
-      </c>
-      <c r="B65" t="s">
-        <v>349</v>
-      </c>
-      <c r="C65" t="s">
-        <v>350</v>
-      </c>
-      <c r="D65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" t="s">
-        <v>351</v>
-      </c>
-      <c r="F65" t="s">
-        <v>296</v>
-      </c>
-      <c r="G65" t="s">
-        <v>352</v>
-      </c>
-      <c r="H65" t="s">
-        <v>278</v>
-      </c>
-      <c r="I65">
-        <v>3.0575583491919659E-3</v>
-      </c>
-      <c r="J65">
-        <v>1.980262729617973E-2</v>
-      </c>
-      <c r="K65">
-        <v>1.7600222318099878E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>348</v>
-      </c>
-      <c r="B66" t="s">
-        <v>349</v>
-      </c>
-      <c r="C66" t="s">
-        <v>350</v>
-      </c>
-      <c r="D66" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" t="s">
-        <v>351</v>
-      </c>
-      <c r="F66" t="s">
-        <v>300</v>
-      </c>
-      <c r="G66" t="s">
-        <v>352</v>
-      </c>
-      <c r="H66" t="s">
-        <v>201</v>
-      </c>
-      <c r="I66">
-        <v>3.609083481225025E-3</v>
-      </c>
-      <c r="J66">
-        <v>2.9558802241544429E-2</v>
-      </c>
-      <c r="K66">
-        <v>1.9823720491662328E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>348</v>
-      </c>
-      <c r="B67" t="s">
-        <v>349</v>
-      </c>
-      <c r="C67" t="s">
-        <v>350</v>
-      </c>
-      <c r="D67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>351</v>
-      </c>
-      <c r="F67" t="s">
-        <v>303</v>
-      </c>
-      <c r="G67" t="s">
-        <v>352</v>
-      </c>
-      <c r="H67" t="s">
-        <v>51</v>
-      </c>
-      <c r="I67">
-        <v>7.21816696245005E-3</v>
-      </c>
-      <c r="J67">
-        <v>5.8268908123975824E-2</v>
-      </c>
-      <c r="K67">
-        <v>4.0807308595070944E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>348</v>
-      </c>
-      <c r="B68" t="s">
-        <v>349</v>
-      </c>
-      <c r="C68" t="s">
-        <v>350</v>
-      </c>
-      <c r="D68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" t="s">
-        <v>351</v>
-      </c>
-      <c r="F68" t="s">
-        <v>308</v>
-      </c>
-      <c r="G68" t="s">
-        <v>352</v>
-      </c>
-      <c r="H68" t="s">
-        <v>230</v>
-      </c>
-      <c r="I68">
-        <v>3.4422677991651496E-3</v>
-      </c>
-      <c r="J68">
-        <v>1.980262729617973E-2</v>
-      </c>
-      <c r="K68">
-        <v>2.0018269245279413E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>348</v>
-      </c>
-      <c r="B69" t="s">
-        <v>349</v>
-      </c>
-      <c r="C69" t="s">
-        <v>350</v>
-      </c>
-      <c r="D69" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" t="s">
-        <v>351</v>
-      </c>
-      <c r="F69" t="s">
-        <v>312</v>
-      </c>
-      <c r="G69" t="s">
-        <v>352</v>
-      </c>
-      <c r="H69" t="s">
-        <v>160</v>
-      </c>
-      <c r="I69">
-        <v>4.0033087284456915E-3</v>
-      </c>
-      <c r="J69">
-        <v>-1.0050335853501451E-2</v>
-      </c>
-      <c r="K69">
-        <v>2.3090308046130589E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>348</v>
-      </c>
-      <c r="B70" t="s">
-        <v>349</v>
-      </c>
-      <c r="C70" t="s">
-        <v>350</v>
-      </c>
-      <c r="D70" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" t="s">
-        <v>351</v>
-      </c>
-      <c r="F70" t="s">
-        <v>316</v>
-      </c>
-      <c r="G70" t="s">
-        <v>352</v>
-      </c>
-      <c r="H70" t="s">
-        <v>278</v>
-      </c>
-      <c r="I70">
-        <v>3.1008536966410077E-3</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>2.0419058079983801E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>348</v>
-      </c>
-      <c r="B71" t="s">
-        <v>349</v>
-      </c>
-      <c r="C71" t="s">
-        <v>350</v>
-      </c>
-      <c r="D71" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" t="s">
-        <v>351</v>
-      </c>
-      <c r="F71" t="s">
-        <v>319</v>
-      </c>
-      <c r="G71" t="s">
-        <v>352</v>
-      </c>
-      <c r="H71" t="s">
-        <v>230</v>
-      </c>
-      <c r="I71">
-        <v>3.4830228110857933E-3</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>2.0419058079983801E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
